--- a/二上-管理經濟學/期末作業/跑gretl程式資料/文創產業類型_含總表_2002.5.xlsx
+++ b/二上-管理經濟學/期末作業/跑gretl程式資料/文創產業類型_含總表_2002.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="140" windowWidth="18210" windowHeight="7090" tabRatio="858" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="140" windowWidth="18210" windowHeight="7090" tabRatio="858" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1299,11 +1299,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x5_3</t>
+    <t>x5_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x5_4</t>
+    <t>x5_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1750,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1778,7 +1778,7 @@
     <col min="20" max="20" width="8.26953125" style="11" customWidth="1"/>
     <col min="21" max="21" width="12.81640625" style="11" customWidth="1"/>
     <col min="22" max="22" width="6" style="11" customWidth="1"/>
-    <col min="23" max="23" width="7.08984375" style="11" customWidth="1"/>
+    <col min="23" max="23" width="12" style="11" customWidth="1"/>
     <col min="24" max="24" width="7.81640625" style="11" customWidth="1"/>
     <col min="25" max="25" width="9.08984375" style="11" customWidth="1"/>
     <col min="26" max="26" width="13.54296875" style="11" customWidth="1"/>
@@ -1861,10 +1861,10 @@
         <v>312</v>
       </c>
       <c r="Y1" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z1" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="AA1" s="8" t="s">
         <v>291</v>
@@ -1947,7 +1947,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="W2" s="4">
-        <v>33700</v>
+        <v>4212</v>
       </c>
       <c r="X2" s="4">
         <v>15.99</v>
@@ -2039,7 +2039,7 @@
         <v>30.6</v>
       </c>
       <c r="W3" s="4">
-        <v>30600</v>
+        <v>2416</v>
       </c>
       <c r="X3" s="4">
         <f>ROUND(AVERAGE(X2,X15),2)</f>
@@ -2132,7 +2132,7 @@
         <v>39.299999999999997</v>
       </c>
       <c r="W4" s="4">
-        <v>39300</v>
+        <v>5821</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" ref="X4:X13" si="0">ROUND(AVERAGE(X3,X16),2)</f>
@@ -2225,7 +2225,7 @@
         <v>37.1</v>
       </c>
       <c r="W5" s="4">
-        <v>37100</v>
+        <v>4351</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="0"/>
@@ -2318,7 +2318,7 @@
         <v>38.299999999999997</v>
       </c>
       <c r="W6" s="4">
-        <v>38300</v>
+        <v>4730</v>
       </c>
       <c r="X6" s="4">
         <f t="shared" si="0"/>
@@ -2411,7 +2411,7 @@
         <v>29.3</v>
       </c>
       <c r="W7" s="4">
-        <v>29300</v>
+        <v>6791</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="0"/>
@@ -2504,7 +2504,7 @@
         <v>27.7</v>
       </c>
       <c r="W8" s="4">
-        <v>27700</v>
+        <v>6693</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="0"/>
@@ -2597,7 +2597,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="W9" s="4">
-        <v>32299.999999999996</v>
+        <v>14768</v>
       </c>
       <c r="X9" s="4">
         <f t="shared" si="0"/>
@@ -2690,7 +2690,7 @@
         <v>35</v>
       </c>
       <c r="W10" s="4">
-        <v>35000</v>
+        <v>10957</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" si="0"/>
@@ -2783,7 +2783,7 @@
         <v>37.799999999999997</v>
       </c>
       <c r="W11" s="4">
-        <v>37800</v>
+        <v>8895</v>
       </c>
       <c r="X11" s="4">
         <f t="shared" si="0"/>
@@ -2876,7 +2876,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="W12" s="4">
-        <v>32200.000000000004</v>
+        <v>4008</v>
       </c>
       <c r="X12" s="4">
         <f t="shared" si="0"/>
@@ -2969,7 +2969,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="W13" s="4">
-        <v>33700</v>
+        <v>3272</v>
       </c>
       <c r="X13" s="4">
         <f t="shared" si="0"/>
@@ -3062,7 +3062,7 @@
         <v>33.5</v>
       </c>
       <c r="W14" s="4">
-        <v>33500</v>
+        <v>5801</v>
       </c>
       <c r="X14" s="4">
         <f>ROUND(AVERAGE(X13,X26),2)</f>
@@ -3155,7 +3155,7 @@
         <v>35</v>
       </c>
       <c r="W15" s="4">
-        <v>35000</v>
+        <v>8127</v>
       </c>
       <c r="X15" s="4">
         <v>9.93</v>
@@ -3247,7 +3247,7 @@
         <v>43.7</v>
       </c>
       <c r="W16" s="4">
-        <v>43700</v>
+        <v>21216</v>
       </c>
       <c r="X16" s="4">
         <v>12.4</v>
@@ -3339,7 +3339,7 @@
         <v>38.4</v>
       </c>
       <c r="W17" s="4">
-        <v>38400</v>
+        <v>12203</v>
       </c>
       <c r="X17" s="4">
         <v>10.9</v>
@@ -3431,7 +3431,7 @@
         <v>37.9</v>
       </c>
       <c r="W18" s="4">
-        <v>37900</v>
+        <v>2694</v>
       </c>
       <c r="X18" s="4">
         <v>10.76</v>
@@ -3523,7 +3523,7 @@
         <v>31.2</v>
       </c>
       <c r="W19" s="4">
-        <v>31200</v>
+        <v>2605</v>
       </c>
       <c r="X19" s="4">
         <v>8.5</v>
@@ -3615,7 +3615,7 @@
         <v>39</v>
       </c>
       <c r="W20" s="4">
-        <v>39000</v>
+        <v>7036</v>
       </c>
       <c r="X20" s="4">
         <v>10.62</v>
@@ -3708,7 +3708,7 @@
         <v>37.5</v>
       </c>
       <c r="W21" s="4">
-        <v>37500</v>
+        <v>6721</v>
       </c>
       <c r="X21" s="4">
         <v>8.42</v>
@@ -3801,7 +3801,7 @@
         <v>38.200000000000003</v>
       </c>
       <c r="W22" s="4">
-        <v>38200</v>
+        <v>10082</v>
       </c>
       <c r="X22" s="4">
         <v>8.58</v>
@@ -3894,7 +3894,7 @@
         <v>39.9</v>
       </c>
       <c r="W23" s="4">
-        <v>39900</v>
+        <v>11278</v>
       </c>
       <c r="X23" s="4">
         <v>8.9600000000000009</v>
@@ -3987,7 +3987,7 @@
         <v>34.6</v>
       </c>
       <c r="W24" s="4">
-        <v>34600</v>
+        <v>7613</v>
       </c>
       <c r="X24" s="4">
         <v>7.84</v>
@@ -4080,7 +4080,7 @@
         <v>37.700000000000003</v>
       </c>
       <c r="W25" s="4">
-        <v>37700</v>
+        <v>15061</v>
       </c>
       <c r="X25" s="4">
         <v>8.5399999999999991</v>
@@ -4173,7 +4173,7 @@
         <v>32.6</v>
       </c>
       <c r="W26" s="4">
-        <v>32600</v>
+        <v>12112</v>
       </c>
       <c r="X26" s="4">
         <v>7.39</v>
@@ -4267,7 +4267,7 @@
         <v>29.9</v>
       </c>
       <c r="W27" s="4">
-        <v>29900</v>
+        <v>2542</v>
       </c>
       <c r="X27" s="4">
         <v>9.6999999999999993</v>
@@ -4361,7 +4361,7 @@
         <v>22.3</v>
       </c>
       <c r="W28" s="4">
-        <v>22300</v>
+        <v>1837</v>
       </c>
       <c r="X28" s="4">
         <v>7.24</v>
@@ -4455,7 +4455,7 @@
         <v>20.5</v>
       </c>
       <c r="W29" s="4">
-        <v>20500</v>
+        <v>1492</v>
       </c>
       <c r="X29" s="4">
         <v>8.01</v>
@@ -4549,7 +4549,7 @@
         <v>18.5</v>
       </c>
       <c r="W30" s="4">
-        <v>18500</v>
+        <v>1731</v>
       </c>
       <c r="X30" s="4">
         <v>7.23</v>
@@ -4643,7 +4643,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="W31" s="4">
-        <v>17600</v>
+        <v>1515</v>
       </c>
       <c r="X31" s="4">
         <v>6.02</v>
@@ -4737,7 +4737,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="W32" s="4">
-        <v>18400</v>
+        <v>1531</v>
       </c>
       <c r="X32" s="4">
         <v>6.29</v>
@@ -4830,7 +4830,7 @@
         <v>20.3</v>
       </c>
       <c r="W33" s="4">
-        <v>20300</v>
+        <v>2640</v>
       </c>
       <c r="X33" s="4">
         <v>9.73</v>
@@ -4923,7 +4923,7 @@
         <v>19.3</v>
       </c>
       <c r="W34" s="4">
-        <v>19300</v>
+        <v>3794</v>
       </c>
       <c r="X34" s="4">
         <v>9.25</v>
@@ -5016,7 +5016,7 @@
         <v>19.7</v>
       </c>
       <c r="W35" s="4">
-        <v>19700</v>
+        <v>3078</v>
       </c>
       <c r="X35" s="4">
         <v>9.4499999999999993</v>
@@ -5109,7 +5109,7 @@
         <v>20</v>
       </c>
       <c r="W36" s="4">
-        <v>20000</v>
+        <v>4903</v>
       </c>
       <c r="X36" s="4">
         <v>9.59</v>
@@ -5202,7 +5202,7 @@
         <v>17.149999999999999</v>
       </c>
       <c r="W37" s="4">
-        <v>17150</v>
+        <v>2290</v>
       </c>
       <c r="X37" s="4">
         <v>8.2200000000000006</v>
@@ -5295,7 +5295,7 @@
         <v>15.4</v>
       </c>
       <c r="W38" s="4">
-        <v>15400</v>
+        <v>2518</v>
       </c>
       <c r="X38" s="4">
         <v>7.38</v>
@@ -5388,7 +5388,7 @@
         <v>15.9</v>
       </c>
       <c r="W39" s="4">
-        <v>15900</v>
+        <v>2082</v>
       </c>
       <c r="X39" s="4">
         <f t="shared" ref="X39:X92" si="3">Z39/V39</f>
@@ -5482,7 +5482,7 @@
         <v>15.6</v>
       </c>
       <c r="W40" s="4">
-        <v>15600</v>
+        <v>1841</v>
       </c>
       <c r="X40" s="4">
         <f t="shared" si="3"/>
@@ -5576,7 +5576,7 @@
         <v>11.85</v>
       </c>
       <c r="W41" s="4">
-        <v>11850</v>
+        <v>2269</v>
       </c>
       <c r="X41" s="4">
         <f t="shared" si="3"/>
@@ -5670,7 +5670,7 @@
         <v>10.3</v>
       </c>
       <c r="W42" s="4">
-        <v>10300</v>
+        <v>2646</v>
       </c>
       <c r="X42" s="4">
         <f t="shared" si="3"/>
@@ -5764,7 +5764,7 @@
         <v>8.48</v>
       </c>
       <c r="W43" s="4">
-        <v>8480</v>
+        <v>1590</v>
       </c>
       <c r="X43" s="4">
         <f t="shared" si="3"/>
@@ -5858,7 +5858,7 @@
         <v>10.15</v>
       </c>
       <c r="W44" s="4">
-        <v>10150</v>
+        <v>1997</v>
       </c>
       <c r="X44" s="4">
         <f t="shared" si="3"/>
@@ -5952,7 +5952,7 @@
         <v>10.25</v>
       </c>
       <c r="W45" s="4">
-        <v>10250</v>
+        <v>4603</v>
       </c>
       <c r="X45" s="4">
         <f t="shared" si="3"/>
@@ -6046,7 +6046,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="W46" s="4">
-        <v>10050</v>
+        <v>2974</v>
       </c>
       <c r="X46" s="4">
         <f t="shared" si="3"/>
@@ -6140,7 +6140,7 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="W47" s="4">
-        <v>9280</v>
+        <v>1379</v>
       </c>
       <c r="X47" s="4">
         <f t="shared" si="3"/>
@@ -6234,7 +6234,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="W48" s="4">
-        <v>8200</v>
+        <v>1897</v>
       </c>
       <c r="X48" s="4">
         <f t="shared" si="3"/>
@@ -6328,7 +6328,7 @@
         <v>8.9700000000000006</v>
       </c>
       <c r="W49" s="4">
-        <v>8970</v>
+        <v>3283</v>
       </c>
       <c r="X49" s="4">
         <f t="shared" si="3"/>
@@ -6422,7 +6422,7 @@
         <v>9.4600000000000009</v>
       </c>
       <c r="W50" s="4">
-        <v>9460</v>
+        <v>4291</v>
       </c>
       <c r="X50" s="4">
         <f t="shared" si="3"/>
@@ -6517,7 +6517,7 @@
         <v>7.84</v>
       </c>
       <c r="W51" s="4">
-        <v>7840</v>
+        <v>1406</v>
       </c>
       <c r="X51" s="4">
         <f t="shared" si="3"/>
@@ -6612,7 +6612,7 @@
         <v>7</v>
       </c>
       <c r="W52" s="4">
-        <v>7000</v>
+        <v>1490</v>
       </c>
       <c r="X52" s="4">
         <f t="shared" si="3"/>
@@ -6707,7 +6707,7 @@
         <v>6.64</v>
       </c>
       <c r="W53" s="4">
-        <v>6640</v>
+        <v>1077</v>
       </c>
       <c r="X53" s="4">
         <f t="shared" si="3"/>
@@ -6802,7 +6802,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="W54" s="4">
-        <v>9120</v>
+        <v>11718</v>
       </c>
       <c r="X54" s="4">
         <f t="shared" si="3"/>
@@ -6897,7 +6897,7 @@
         <v>10.25</v>
       </c>
       <c r="W55" s="4">
-        <v>10250</v>
+        <v>18821</v>
       </c>
       <c r="X55" s="4">
         <f t="shared" si="3"/>
@@ -6992,7 +6992,7 @@
         <v>9.9</v>
       </c>
       <c r="W56" s="4">
-        <v>9900</v>
+        <v>14237</v>
       </c>
       <c r="X56" s="4">
         <f t="shared" si="3"/>
@@ -7085,7 +7085,7 @@
         <v>11.7</v>
       </c>
       <c r="W57" s="4">
-        <v>11700</v>
+        <v>14412</v>
       </c>
       <c r="X57" s="4">
         <f t="shared" si="3"/>
@@ -7178,7 +7178,7 @@
         <v>12.75</v>
       </c>
       <c r="W58" s="4">
-        <v>12750</v>
+        <v>31126</v>
       </c>
       <c r="X58" s="4">
         <f t="shared" si="3"/>
@@ -7271,7 +7271,7 @@
         <v>16</v>
       </c>
       <c r="W59" s="4">
-        <v>16000</v>
+        <v>13665</v>
       </c>
       <c r="X59" s="4">
         <f t="shared" si="3"/>
@@ -7364,7 +7364,7 @@
         <v>15.5</v>
       </c>
       <c r="W60" s="4">
-        <v>15500</v>
+        <v>16895</v>
       </c>
       <c r="X60" s="4">
         <f t="shared" si="3"/>
@@ -7457,7 +7457,7 @@
         <v>19</v>
       </c>
       <c r="W61" s="4">
-        <v>19000</v>
+        <v>24445</v>
       </c>
       <c r="X61" s="4">
         <f t="shared" si="3"/>
@@ -7550,7 +7550,7 @@
         <v>6.01</v>
       </c>
       <c r="W62" s="4">
-        <v>6010</v>
+        <v>5594</v>
       </c>
       <c r="X62" s="4">
         <f t="shared" si="3"/>
@@ -7643,7 +7643,7 @@
         <v>11.05</v>
       </c>
       <c r="W63" s="4">
-        <v>11050</v>
+        <v>3559</v>
       </c>
       <c r="X63" s="4">
         <f t="shared" si="3"/>
@@ -7736,7 +7736,7 @@
         <v>13.9</v>
       </c>
       <c r="W64" s="4">
-        <v>13900</v>
+        <v>3756</v>
       </c>
       <c r="X64" s="4">
         <f t="shared" si="3"/>
@@ -7829,7 +7829,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="W65" s="4">
-        <v>10050</v>
+        <v>1675</v>
       </c>
       <c r="X65" s="4">
         <f t="shared" si="3"/>
@@ -7922,7 +7922,7 @@
         <v>9.74</v>
       </c>
       <c r="W66" s="4">
-        <v>9740</v>
+        <v>734</v>
       </c>
       <c r="X66" s="4">
         <f t="shared" si="3"/>
@@ -8015,7 +8015,7 @@
         <v>8.25</v>
       </c>
       <c r="W67" s="4">
-        <v>8250</v>
+        <v>791</v>
       </c>
       <c r="X67" s="4">
         <f t="shared" si="3"/>
@@ -8108,7 +8108,7 @@
         <v>9.6199999999999992</v>
       </c>
       <c r="W68" s="4">
-        <v>9620</v>
+        <v>1165</v>
       </c>
       <c r="X68" s="4">
         <f t="shared" si="3"/>
@@ -8201,7 +8201,7 @@
         <v>10</v>
       </c>
       <c r="W69" s="4">
-        <v>10000</v>
+        <v>934</v>
       </c>
       <c r="X69" s="4">
         <f t="shared" si="3"/>
@@ -8294,7 +8294,7 @@
         <v>16.5</v>
       </c>
       <c r="W70" s="4">
-        <v>16500</v>
+        <v>642</v>
       </c>
       <c r="X70" s="4">
         <f t="shared" si="3"/>
@@ -8387,7 +8387,7 @@
         <v>16.2</v>
       </c>
       <c r="W71" s="4">
-        <v>16200</v>
+        <v>75</v>
       </c>
       <c r="X71" s="4">
         <f t="shared" si="3"/>
@@ -8480,7 +8480,7 @@
         <v>12.95</v>
       </c>
       <c r="W72" s="4">
-        <v>12950</v>
+        <v>369</v>
       </c>
       <c r="X72" s="4">
         <f t="shared" si="3"/>
@@ -8573,7 +8573,7 @@
         <v>14.4</v>
       </c>
       <c r="W73" s="4">
-        <v>14400</v>
+        <v>520</v>
       </c>
       <c r="X73" s="4">
         <f t="shared" si="3"/>
@@ -8666,7 +8666,7 @@
         <v>15.5</v>
       </c>
       <c r="W74" s="4">
-        <v>15500</v>
+        <v>329</v>
       </c>
       <c r="X74" s="4">
         <f t="shared" si="3"/>
@@ -8760,7 +8760,7 @@
         <v>13.7</v>
       </c>
       <c r="W75" s="4">
-        <v>13700</v>
+        <v>211</v>
       </c>
       <c r="X75" s="4">
         <f t="shared" si="3"/>
@@ -8854,7 +8854,7 @@
         <v>13.2</v>
       </c>
       <c r="W76" s="4">
-        <v>13200</v>
+        <v>202</v>
       </c>
       <c r="X76" s="4">
         <f t="shared" si="3"/>
@@ -8948,7 +8948,7 @@
         <v>11.2</v>
       </c>
       <c r="W77" s="4">
-        <v>11200</v>
+        <v>53</v>
       </c>
       <c r="X77" s="4">
         <f t="shared" si="3"/>
@@ -9042,7 +9042,7 @@
         <v>10.8</v>
       </c>
       <c r="W78" s="4">
-        <v>10800</v>
+        <v>202</v>
       </c>
       <c r="X78" s="4">
         <f t="shared" si="3"/>
@@ -9136,7 +9136,7 @@
         <v>10</v>
       </c>
       <c r="W79" s="4">
-        <v>10000</v>
+        <v>1070</v>
       </c>
       <c r="X79" s="4">
         <f t="shared" si="3"/>
@@ -9230,7 +9230,7 @@
         <v>9.9</v>
       </c>
       <c r="W80" s="4">
-        <v>9900</v>
+        <v>435</v>
       </c>
       <c r="X80" s="4">
         <f t="shared" si="3"/>
@@ -9324,7 +9324,7 @@
         <v>19.5</v>
       </c>
       <c r="W81" s="4">
-        <v>19500</v>
+        <v>1035</v>
       </c>
       <c r="X81" s="4">
         <f t="shared" si="3"/>
@@ -9418,7 +9418,7 @@
         <v>19.5</v>
       </c>
       <c r="W82" s="4">
-        <v>19500</v>
+        <v>359</v>
       </c>
       <c r="X82" s="4">
         <f t="shared" si="3"/>
@@ -9512,7 +9512,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="W83" s="4">
-        <v>17600</v>
+        <v>148</v>
       </c>
       <c r="X83" s="4">
         <f t="shared" si="3"/>
@@ -9606,7 +9606,7 @@
         <v>14.35</v>
       </c>
       <c r="W84" s="4">
-        <v>14350</v>
+        <v>1952</v>
       </c>
       <c r="X84" s="4">
         <f t="shared" si="3"/>
@@ -9700,7 +9700,7 @@
         <v>23.6</v>
       </c>
       <c r="W85" s="4">
-        <v>23600</v>
+        <v>1190</v>
       </c>
       <c r="X85" s="4">
         <f t="shared" si="3"/>
@@ -9794,7 +9794,7 @@
         <v>48.85</v>
       </c>
       <c r="W86" s="4">
-        <v>48850</v>
+        <v>4859</v>
       </c>
       <c r="X86" s="4">
         <f t="shared" si="3"/>
@@ -9888,7 +9888,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="W87" s="4">
-        <v>34300</v>
+        <v>1507</v>
       </c>
       <c r="X87" s="4">
         <f t="shared" si="3"/>
@@ -9982,7 +9982,7 @@
         <v>36.549999999999997</v>
       </c>
       <c r="W88" s="4">
-        <v>36550</v>
+        <v>840</v>
       </c>
       <c r="X88" s="4">
         <f t="shared" si="3"/>
@@ -10076,7 +10076,7 @@
         <v>31.8</v>
       </c>
       <c r="W89" s="4">
-        <v>31800</v>
+        <v>660</v>
       </c>
       <c r="X89" s="4">
         <f t="shared" si="3"/>
@@ -10170,7 +10170,7 @@
         <v>29.8</v>
       </c>
       <c r="W90" s="4">
-        <v>29800</v>
+        <v>1341</v>
       </c>
       <c r="X90" s="4">
         <f t="shared" si="3"/>
@@ -10264,7 +10264,7 @@
         <v>30.5</v>
       </c>
       <c r="W91" s="4">
-        <v>30500</v>
+        <v>730</v>
       </c>
       <c r="X91" s="4">
         <f t="shared" si="3"/>
@@ -10358,7 +10358,7 @@
         <v>34.9</v>
       </c>
       <c r="W92" s="4">
-        <v>34900</v>
+        <v>807</v>
       </c>
       <c r="X92" s="4">
         <f t="shared" si="3"/>
@@ -10452,7 +10452,7 @@
         <v>39</v>
       </c>
       <c r="W93" s="4">
-        <v>39000</v>
+        <v>887</v>
       </c>
       <c r="X93" s="4">
         <v>66.53</v>
@@ -10545,7 +10545,7 @@
         <v>36</v>
       </c>
       <c r="W94" s="4">
-        <v>36000</v>
+        <v>858</v>
       </c>
       <c r="X94" s="4">
         <v>61.42</v>
@@ -10638,7 +10638,7 @@
         <v>39</v>
       </c>
       <c r="W95" s="4">
-        <v>39000</v>
+        <v>460</v>
       </c>
       <c r="X95" s="4">
         <v>66.569999999999993</v>
@@ -10731,7 +10731,7 @@
         <v>42</v>
       </c>
       <c r="W96" s="4">
-        <v>42000</v>
+        <v>715</v>
       </c>
       <c r="X96" s="4">
         <v>71.69</v>
@@ -10824,7 +10824,7 @@
         <v>43.05</v>
       </c>
       <c r="W97" s="4">
-        <v>43050</v>
+        <v>645</v>
       </c>
       <c r="X97" s="4">
         <v>89.42</v>
@@ -10917,7 +10917,7 @@
         <v>43.8</v>
       </c>
       <c r="W98" s="4">
-        <v>43800</v>
+        <v>284</v>
       </c>
       <c r="X98" s="4">
         <v>90.99</v>
@@ -11010,7 +11010,7 @@
         <v>40.549999999999997</v>
       </c>
       <c r="W99" s="4">
-        <v>40550</v>
+        <v>558</v>
       </c>
       <c r="X99" s="4">
         <v>38.75</v>
@@ -11103,7 +11103,7 @@
         <v>41.95</v>
       </c>
       <c r="W100" s="4">
-        <v>41950</v>
+        <v>339</v>
       </c>
       <c r="X100" s="4">
         <v>40.1</v>
@@ -11196,7 +11196,7 @@
         <v>40</v>
       </c>
       <c r="W101" s="4">
-        <v>40000</v>
+        <v>302</v>
       </c>
       <c r="X101" s="4">
         <v>44.33</v>
@@ -11289,7 +11289,7 @@
         <v>32.1</v>
       </c>
       <c r="W102" s="4">
-        <v>32100</v>
+        <v>744</v>
       </c>
       <c r="X102" s="4">
         <v>35.799999999999997</v>
@@ -11382,7 +11382,7 @@
         <v>31.3</v>
       </c>
       <c r="W103" s="4">
-        <v>31300</v>
+        <v>330</v>
       </c>
       <c r="X103" s="4">
         <f t="shared" ref="X103:X158" si="6">Z103/V103</f>
@@ -11476,7 +11476,7 @@
         <v>29.5</v>
       </c>
       <c r="W104" s="4">
-        <v>29500</v>
+        <v>218</v>
       </c>
       <c r="X104" s="4">
         <f t="shared" si="6"/>
@@ -11570,7 +11570,7 @@
         <v>27.75</v>
       </c>
       <c r="W105" s="4">
-        <v>27750</v>
+        <v>313</v>
       </c>
       <c r="X105" s="4">
         <f t="shared" si="6"/>
@@ -11664,7 +11664,7 @@
         <v>26.5</v>
       </c>
       <c r="W106" s="4">
-        <v>26500</v>
+        <v>363</v>
       </c>
       <c r="X106" s="4">
         <f t="shared" si="6"/>
@@ -11758,7 +11758,7 @@
         <v>25.65</v>
       </c>
       <c r="W107" s="4">
-        <v>25650</v>
+        <v>81</v>
       </c>
       <c r="X107" s="4">
         <f t="shared" si="6"/>
@@ -11852,7 +11852,7 @@
         <v>21.45</v>
       </c>
       <c r="W108" s="4">
-        <v>21450</v>
+        <v>226</v>
       </c>
       <c r="X108" s="4">
         <f t="shared" si="6"/>
@@ -11946,7 +11946,7 @@
         <v>23.8</v>
       </c>
       <c r="W109" s="4">
-        <v>23800</v>
+        <v>189</v>
       </c>
       <c r="X109" s="4">
         <f t="shared" si="6"/>
@@ -12040,7 +12040,7 @@
         <v>20.45</v>
       </c>
       <c r="W110" s="4">
-        <v>20450</v>
+        <v>107</v>
       </c>
       <c r="X110" s="4">
         <f t="shared" si="6"/>
@@ -12133,7 +12133,7 @@
         <v>20.6</v>
       </c>
       <c r="W111" s="4">
-        <v>20600</v>
+        <v>53</v>
       </c>
       <c r="X111" s="4">
         <f t="shared" si="6"/>
@@ -12226,7 +12226,7 @@
         <v>18.3</v>
       </c>
       <c r="W112" s="4">
-        <v>18300</v>
+        <v>77</v>
       </c>
       <c r="X112" s="4">
         <f t="shared" si="6"/>
@@ -12319,7 +12319,7 @@
         <v>21</v>
       </c>
       <c r="W113" s="4">
-        <v>21000</v>
+        <v>46</v>
       </c>
       <c r="X113" s="4">
         <f t="shared" si="6"/>
@@ -12412,7 +12412,7 @@
         <v>19.5</v>
       </c>
       <c r="W114" s="4">
-        <v>19500</v>
+        <v>44</v>
       </c>
       <c r="X114" s="4">
         <f t="shared" si="6"/>
@@ -12505,7 +12505,7 @@
         <v>19.8</v>
       </c>
       <c r="W115" s="4">
-        <v>19800</v>
+        <v>23</v>
       </c>
       <c r="X115" s="4">
         <f t="shared" si="6"/>
@@ -12598,7 +12598,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="W116" s="4">
-        <v>20100</v>
+        <v>26</v>
       </c>
       <c r="X116" s="4">
         <f t="shared" si="6"/>
@@ -12691,7 +12691,7 @@
         <v>19.2</v>
       </c>
       <c r="W117" s="4">
-        <v>19200</v>
+        <v>53</v>
       </c>
       <c r="X117" s="4">
         <f t="shared" si="6"/>
@@ -12784,7 +12784,7 @@
         <v>22.35</v>
       </c>
       <c r="W118" s="4">
-        <v>22350</v>
+        <v>240</v>
       </c>
       <c r="X118" s="4">
         <f t="shared" si="6"/>
@@ -12877,7 +12877,7 @@
         <v>22</v>
       </c>
       <c r="W119" s="4">
-        <v>22000</v>
+        <v>91</v>
       </c>
       <c r="X119" s="4">
         <f t="shared" si="6"/>
@@ -12970,7 +12970,7 @@
         <v>20.2</v>
       </c>
       <c r="W120" s="4">
-        <v>20200</v>
+        <v>348</v>
       </c>
       <c r="X120" s="4">
         <f t="shared" si="6"/>
@@ -13063,7 +13063,7 @@
         <v>18.5</v>
       </c>
       <c r="W121" s="4">
-        <v>18500</v>
+        <v>95</v>
       </c>
       <c r="X121" s="4">
         <f t="shared" si="6"/>
@@ -13156,7 +13156,7 @@
         <v>18.5</v>
       </c>
       <c r="W122" s="4">
-        <v>18500</v>
+        <v>49</v>
       </c>
       <c r="X122" s="4">
         <f t="shared" si="6"/>
@@ -13250,7 +13250,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="W123" s="4">
-        <v>19400</v>
+        <v>196</v>
       </c>
       <c r="X123" s="4">
         <f t="shared" si="6"/>
@@ -13344,7 +13344,7 @@
         <v>19.95</v>
       </c>
       <c r="W124" s="4">
-        <v>19950</v>
+        <v>67</v>
       </c>
       <c r="X124" s="4">
         <f t="shared" si="6"/>
@@ -13438,7 +13438,7 @@
         <v>18.95</v>
       </c>
       <c r="W125" s="4">
-        <v>18950</v>
+        <v>78</v>
       </c>
       <c r="X125" s="4">
         <f t="shared" si="6"/>
@@ -13532,7 +13532,7 @@
         <v>14.8</v>
       </c>
       <c r="W126" s="4">
-        <v>14800</v>
+        <v>100</v>
       </c>
       <c r="X126" s="4">
         <f t="shared" si="6"/>
@@ -13625,7 +13625,7 @@
         <v>16.8</v>
       </c>
       <c r="W127" s="4">
-        <v>16800</v>
+        <v>97</v>
       </c>
       <c r="X127" s="4">
         <f t="shared" si="6"/>
@@ -13718,7 +13718,7 @@
         <v>14.8</v>
       </c>
       <c r="W128" s="4">
-        <v>14800</v>
+        <v>58</v>
       </c>
       <c r="X128" s="4">
         <f t="shared" si="6"/>
@@ -13813,7 +13813,7 @@
         <v>14</v>
       </c>
       <c r="W129" s="4">
-        <v>14000</v>
+        <v>160</v>
       </c>
       <c r="X129" s="4">
         <f t="shared" si="6"/>
@@ -13908,7 +13908,7 @@
         <v>13.7</v>
       </c>
       <c r="W130" s="4">
-        <v>13700</v>
+        <v>73</v>
       </c>
       <c r="X130" s="4">
         <f t="shared" si="6"/>
@@ -14003,7 +14003,7 @@
         <v>14.5</v>
       </c>
       <c r="W131" s="4">
-        <v>14500</v>
+        <v>72</v>
       </c>
       <c r="X131" s="4">
         <f t="shared" si="6"/>
@@ -14098,7 +14098,7 @@
         <v>14.2</v>
       </c>
       <c r="W132" s="4">
-        <v>14200</v>
+        <v>56</v>
       </c>
       <c r="X132" s="4">
         <f t="shared" si="6"/>
@@ -14193,7 +14193,7 @@
         <v>15.2</v>
       </c>
       <c r="W133" s="4">
-        <v>15200</v>
+        <v>91</v>
       </c>
       <c r="X133" s="4">
         <f t="shared" si="6"/>
@@ -14288,7 +14288,7 @@
         <v>15</v>
       </c>
       <c r="W134" s="4">
-        <v>15000</v>
+        <v>75</v>
       </c>
       <c r="X134" s="4">
         <f t="shared" si="6"/>
@@ -14382,7 +14382,7 @@
         <v>14.2</v>
       </c>
       <c r="W135" s="4">
-        <v>14200</v>
+        <v>48</v>
       </c>
       <c r="X135" s="4">
         <f t="shared" si="6"/>
@@ -14476,7 +14476,7 @@
         <v>13.2</v>
       </c>
       <c r="W136" s="4">
-        <v>13200</v>
+        <v>3524</v>
       </c>
       <c r="X136" s="4">
         <f t="shared" si="6"/>
@@ -14570,7 +14570,7 @@
         <v>11.5</v>
       </c>
       <c r="W137" s="4">
-        <v>11500</v>
+        <v>1129</v>
       </c>
       <c r="X137" s="4">
         <f t="shared" si="6"/>
@@ -14664,7 +14664,7 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="W138" s="4">
-        <v>9450</v>
+        <v>48</v>
       </c>
       <c r="X138" s="4">
         <f t="shared" si="6"/>
@@ -14759,7 +14759,7 @@
         <v>19.25</v>
       </c>
       <c r="W139" s="4">
-        <v>19250</v>
+        <v>275</v>
       </c>
       <c r="X139" s="4">
         <f t="shared" si="6"/>
@@ -14854,7 +14854,7 @@
         <v>14.4</v>
       </c>
       <c r="W140" s="4">
-        <v>14400</v>
+        <v>62</v>
       </c>
       <c r="X140" s="4">
         <f t="shared" si="6"/>
@@ -14948,7 +14948,7 @@
         <v>16.5</v>
       </c>
       <c r="W141" s="4">
-        <v>16500</v>
+        <v>1583</v>
       </c>
       <c r="X141" s="4">
         <f t="shared" si="6"/>
@@ -15042,7 +15042,7 @@
         <v>33.85</v>
       </c>
       <c r="W142" s="4">
-        <v>33850</v>
+        <v>4251</v>
       </c>
       <c r="X142" s="4">
         <f t="shared" si="6"/>
@@ -15136,7 +15136,7 @@
         <v>41.9</v>
       </c>
       <c r="W143" s="4">
-        <v>41900</v>
+        <v>1120</v>
       </c>
       <c r="X143" s="4">
         <f t="shared" si="6"/>
@@ -15230,7 +15230,7 @@
         <v>52</v>
       </c>
       <c r="W144" s="4">
-        <v>52000</v>
+        <v>1204</v>
       </c>
       <c r="X144" s="4">
         <f t="shared" si="6"/>
@@ -15324,7 +15324,7 @@
         <v>56</v>
       </c>
       <c r="W145" s="4">
-        <v>56000</v>
+        <v>1110</v>
       </c>
       <c r="X145" s="4">
         <f t="shared" si="6"/>
@@ -15418,7 +15418,7 @@
         <v>80</v>
       </c>
       <c r="W146" s="4">
-        <v>80000</v>
+        <v>887</v>
       </c>
       <c r="X146" s="4">
         <f t="shared" si="6"/>
@@ -15511,7 +15511,7 @@
         <v>76</v>
       </c>
       <c r="W147" s="4">
-        <v>76000</v>
+        <v>361</v>
       </c>
       <c r="X147" s="4">
         <f t="shared" si="6"/>
@@ -15604,7 +15604,7 @@
         <v>73</v>
       </c>
       <c r="W148" s="4">
-        <v>73000</v>
+        <v>558</v>
       </c>
       <c r="X148" s="4">
         <f t="shared" si="6"/>
@@ -15697,7 +15697,7 @@
         <v>65</v>
       </c>
       <c r="W149" s="4">
-        <v>65000</v>
+        <v>345</v>
       </c>
       <c r="X149" s="4">
         <f t="shared" si="6"/>
@@ -15790,7 +15790,7 @@
         <v>85</v>
       </c>
       <c r="W150" s="4">
-        <v>85000</v>
+        <v>1361</v>
       </c>
       <c r="X150" s="4">
         <f t="shared" si="6"/>
@@ -15883,7 +15883,7 @@
         <v>71</v>
       </c>
       <c r="W151" s="4">
-        <v>71000</v>
+        <v>1503</v>
       </c>
       <c r="X151" s="4">
         <f t="shared" si="6"/>
@@ -15976,7 +15976,7 @@
         <v>79.099999999999994</v>
       </c>
       <c r="W152" s="4">
-        <v>79100</v>
+        <v>1083</v>
       </c>
       <c r="X152" s="4">
         <f t="shared" si="6"/>
@@ -16069,7 +16069,7 @@
         <v>81.2</v>
       </c>
       <c r="W153" s="4">
-        <v>81200</v>
+        <v>1523</v>
       </c>
       <c r="X153" s="4">
         <f t="shared" si="6"/>
@@ -16162,7 +16162,7 @@
         <v>81</v>
       </c>
       <c r="W154" s="4">
-        <v>81000</v>
+        <v>507</v>
       </c>
       <c r="X154" s="4">
         <f t="shared" si="6"/>
@@ -16255,7 +16255,7 @@
         <v>78.400000000000006</v>
       </c>
       <c r="W155" s="4">
-        <v>78400</v>
+        <v>380</v>
       </c>
       <c r="X155" s="4">
         <f t="shared" si="6"/>
@@ -16348,7 +16348,7 @@
         <v>72.8</v>
       </c>
       <c r="W156" s="4">
-        <v>72800</v>
+        <v>539</v>
       </c>
       <c r="X156" s="4">
         <f t="shared" si="6"/>
@@ -16441,7 +16441,7 @@
         <v>75.900000000000006</v>
       </c>
       <c r="W157" s="4">
-        <v>75900</v>
+        <v>344</v>
       </c>
       <c r="X157" s="4">
         <f t="shared" si="6"/>
@@ -16534,7 +16534,7 @@
         <v>74.5</v>
       </c>
       <c r="W158" s="4">
-        <v>74500</v>
+        <v>242</v>
       </c>
       <c r="X158" s="4">
         <f t="shared" si="6"/>
@@ -16628,7 +16628,7 @@
         <v>70</v>
       </c>
       <c r="W159" s="4">
-        <v>70000</v>
+        <v>180</v>
       </c>
       <c r="X159" s="4">
         <v>152.81</v>
@@ -16721,7 +16721,7 @@
         <v>65.900000000000006</v>
       </c>
       <c r="W160" s="4">
-        <v>65900</v>
+        <v>89</v>
       </c>
       <c r="X160" s="4">
         <v>143.86000000000001</v>
@@ -16814,7 +16814,7 @@
         <v>73.5</v>
       </c>
       <c r="W161" s="4">
-        <v>73500</v>
+        <v>573</v>
       </c>
       <c r="X161" s="4">
         <v>160.44999999999999</v>
@@ -16907,7 +16907,7 @@
         <v>77.599999999999994</v>
       </c>
       <c r="W162" s="4">
-        <v>77600</v>
+        <v>256</v>
       </c>
       <c r="X162" s="4">
         <v>171.74</v>
@@ -17000,7 +17000,7 @@
         <v>95</v>
       </c>
       <c r="W163" s="4">
-        <v>95000</v>
+        <v>1359</v>
       </c>
       <c r="X163" s="4">
         <f>AVERAGE(X162,X165)</f>
@@ -17094,7 +17094,7 @@
         <v>89.7</v>
       </c>
       <c r="W164" s="4">
-        <v>89700</v>
+        <v>1447</v>
       </c>
       <c r="X164" s="4">
         <f>AVERAGE(X163,X166)</f>
@@ -17188,7 +17188,7 @@
         <v>112.5</v>
       </c>
       <c r="W165" s="4">
-        <v>112500</v>
+        <v>21425</v>
       </c>
       <c r="X165" s="4">
         <v>54.58</v>
@@ -17281,7 +17281,7 @@
         <v>114</v>
       </c>
       <c r="W166" s="4">
-        <v>114000</v>
+        <v>32499</v>
       </c>
       <c r="X166" s="4">
         <v>55.31</v>
@@ -17374,7 +17374,7 @@
         <v>95.7</v>
       </c>
       <c r="W167" s="4">
-        <v>95700</v>
+        <v>17574</v>
       </c>
       <c r="X167" s="4">
         <v>46.43</v>
@@ -17467,7 +17467,7 @@
         <v>126.5</v>
       </c>
       <c r="W168" s="4">
-        <v>126500</v>
+        <v>30169</v>
       </c>
       <c r="X168" s="4">
         <v>61.38</v>
@@ -17560,7 +17560,7 @@
         <v>102</v>
       </c>
       <c r="W169" s="4">
-        <v>102000</v>
+        <v>26454</v>
       </c>
       <c r="X169" s="4">
         <v>51.63</v>
@@ -17649,7 +17649,7 @@
         <v>88.6</v>
       </c>
       <c r="W170" s="4">
-        <v>88600</v>
+        <v>18049</v>
       </c>
       <c r="X170" s="4">
         <v>44.84</v>
@@ -17742,7 +17742,7 @@
         <v>96</v>
       </c>
       <c r="W171" s="4">
-        <v>96000</v>
+        <v>15877</v>
       </c>
       <c r="X171" s="4">
         <f>AVERAGE(X170,X183)</f>
@@ -17836,7 +17836,7 @@
         <v>91.7</v>
       </c>
       <c r="W172" s="4">
-        <v>91700</v>
+        <v>12326</v>
       </c>
       <c r="X172" s="4">
         <f>AVERAGE(X171,X184)</f>
@@ -17930,7 +17930,7 @@
         <v>99.3</v>
       </c>
       <c r="W173" s="4">
-        <v>99300</v>
+        <v>15890</v>
       </c>
       <c r="X173" s="4">
         <f t="shared" ref="X173:X176" si="12">AVERAGE(X172,X185)</f>
@@ -18024,7 +18024,7 @@
         <v>125</v>
       </c>
       <c r="W174" s="4">
-        <v>125000</v>
+        <v>10585</v>
       </c>
       <c r="X174" s="4">
         <f t="shared" si="12"/>
@@ -18119,7 +18119,7 @@
         <v>123</v>
       </c>
       <c r="W175" s="4">
-        <v>123000</v>
+        <v>9962</v>
       </c>
       <c r="X175" s="4">
         <f t="shared" si="12"/>
@@ -18214,7 +18214,7 @@
         <v>119.5</v>
       </c>
       <c r="W176" s="4">
-        <v>119500</v>
+        <v>4746</v>
       </c>
       <c r="X176" s="4">
         <f t="shared" si="12"/>
@@ -18309,7 +18309,7 @@
         <v>115.5</v>
       </c>
       <c r="W177" s="4">
-        <v>115500</v>
+        <v>2636</v>
       </c>
       <c r="X177" s="4">
         <f>AVERAGE(X171,X184)</f>
@@ -18404,7 +18404,7 @@
         <v>114</v>
       </c>
       <c r="W178" s="4">
-        <v>114000</v>
+        <v>1253</v>
       </c>
       <c r="X178" s="4">
         <f t="shared" ref="X178:X182" si="14">AVERAGE(X172,X185)</f>
@@ -18499,7 +18499,7 @@
         <v>114</v>
       </c>
       <c r="W179" s="4">
-        <v>114000</v>
+        <v>1651</v>
       </c>
       <c r="X179" s="4">
         <f t="shared" si="14"/>
@@ -18594,7 +18594,7 @@
         <v>124.5</v>
       </c>
       <c r="W180" s="4">
-        <v>124500</v>
+        <v>3804</v>
       </c>
       <c r="X180" s="4">
         <f t="shared" si="14"/>
@@ -18689,7 +18689,7 @@
         <v>129</v>
       </c>
       <c r="W181" s="4">
-        <v>129000</v>
+        <v>2229</v>
       </c>
       <c r="X181" s="4">
         <f t="shared" si="14"/>
@@ -18784,7 +18784,7 @@
         <v>235.5</v>
       </c>
       <c r="W182" s="4">
-        <v>235500</v>
+        <v>34612</v>
       </c>
       <c r="X182" s="4">
         <f t="shared" si="14"/>
@@ -18879,7 +18879,7 @@
         <v>119.5</v>
       </c>
       <c r="W183" s="4">
-        <v>119500</v>
+        <v>49288</v>
       </c>
       <c r="X183" s="4">
         <v>244.27</v>
@@ -18973,7 +18973,7 @@
         <v>91.1</v>
       </c>
       <c r="W184" s="4">
-        <v>91100</v>
+        <v>26430</v>
       </c>
       <c r="X184" s="4">
         <v>186.22</v>
@@ -19067,7 +19067,7 @@
         <v>82.5</v>
       </c>
       <c r="W185" s="4">
-        <v>82500</v>
+        <v>28661</v>
       </c>
       <c r="X185" s="4">
         <v>168.64</v>
@@ -19161,7 +19161,7 @@
         <v>82</v>
       </c>
       <c r="W186" s="4">
-        <v>82000</v>
+        <v>15182</v>
       </c>
       <c r="X186" s="4">
         <v>167.61</v>
@@ -19255,7 +19255,7 @@
         <v>86.5</v>
       </c>
       <c r="W187" s="4">
-        <v>86500</v>
+        <v>34643</v>
       </c>
       <c r="X187" s="4">
         <v>165.17</v>
@@ -19349,7 +19349,7 @@
         <v>88.5</v>
       </c>
       <c r="W188" s="4">
-        <v>88500</v>
+        <v>18780</v>
       </c>
       <c r="X188" s="4">
         <v>167.76</v>
@@ -19443,7 +19443,7 @@
         <v>83.4</v>
       </c>
       <c r="W189" s="4">
-        <v>83400</v>
+        <v>5154</v>
       </c>
       <c r="X189" s="4">
         <v>597.26</v>
@@ -19537,7 +19537,7 @@
         <v>87.8</v>
       </c>
       <c r="W190" s="4">
-        <v>87800</v>
+        <v>14585</v>
       </c>
       <c r="X190" s="4">
         <v>628.77</v>
@@ -19631,7 +19631,7 @@
         <v>82.9</v>
       </c>
       <c r="W191" s="4">
-        <v>82900</v>
+        <v>3175</v>
       </c>
       <c r="X191" s="4">
         <v>593.67999999999995</v>
@@ -19725,7 +19725,7 @@
         <v>79.599999999999994</v>
       </c>
       <c r="W192" s="4">
-        <v>79600</v>
+        <v>14556</v>
       </c>
       <c r="X192" s="4">
         <v>569.94000000000005</v>
@@ -19819,7 +19819,7 @@
         <v>86.6</v>
       </c>
       <c r="W193" s="4">
-        <v>86600</v>
+        <v>12744</v>
       </c>
       <c r="X193" s="4">
         <v>620.05999999999995</v>
@@ -19913,7 +19913,7 @@
         <v>137.5</v>
       </c>
       <c r="W194" s="4">
-        <v>137500</v>
+        <v>40930</v>
       </c>
       <c r="X194" s="4">
         <v>984.51</v>
@@ -20006,7 +20006,7 @@
         <v>108</v>
       </c>
       <c r="W195" s="4">
-        <v>108000</v>
+        <v>33034</v>
       </c>
       <c r="X195" s="4">
         <v>91.46</v>
@@ -20099,7 +20099,7 @@
         <v>129.5</v>
       </c>
       <c r="W196" s="4">
-        <v>129500</v>
+        <v>20283</v>
       </c>
       <c r="X196" s="4">
         <v>109.67</v>
@@ -20192,7 +20192,7 @@
         <v>120.5</v>
       </c>
       <c r="W197" s="4">
-        <v>120500</v>
+        <v>12624</v>
       </c>
       <c r="X197" s="4">
         <v>101.99</v>
@@ -20285,7 +20285,7 @@
         <v>136.5</v>
       </c>
       <c r="W198" s="4">
-        <v>136500</v>
+        <v>25479</v>
       </c>
       <c r="X198" s="4">
         <v>115.53</v>
@@ -20377,7 +20377,7 @@
         <v>80.900000000000006</v>
       </c>
       <c r="W199" s="4">
-        <v>80900</v>
+        <v>29715</v>
       </c>
       <c r="X199" s="4">
         <v>629.01</v>
@@ -20469,7 +20469,7 @@
         <v>105</v>
       </c>
       <c r="W200" s="4">
-        <v>105000</v>
+        <v>16793</v>
       </c>
       <c r="X200" s="4">
         <v>816.39</v>
@@ -20561,7 +20561,7 @@
         <v>114</v>
       </c>
       <c r="W201" s="4">
-        <v>114000</v>
+        <v>14011</v>
       </c>
       <c r="X201" s="4">
         <v>152.94999999999999</v>
@@ -20653,7 +20653,7 @@
         <v>119</v>
       </c>
       <c r="W202" s="4">
-        <v>119000</v>
+        <v>14165</v>
       </c>
       <c r="X202" s="4">
         <v>164.67</v>
@@ -20745,7 +20745,7 @@
         <v>140</v>
       </c>
       <c r="W203" s="4">
-        <v>140000</v>
+        <v>17131</v>
       </c>
       <c r="X203" s="4">
         <v>193.73</v>
@@ -20837,7 +20837,7 @@
         <v>132</v>
       </c>
       <c r="W204" s="4">
-        <v>132000</v>
+        <v>29514</v>
       </c>
       <c r="X204" s="4">
         <v>182.66</v>
@@ -20929,7 +20929,7 @@
         <v>96.2</v>
       </c>
       <c r="W205" s="4">
-        <v>96200</v>
+        <v>31065</v>
       </c>
       <c r="X205" s="4">
         <v>133.12</v>
@@ -21021,7 +21021,7 @@
         <v>90.8</v>
       </c>
       <c r="W206" s="4">
-        <v>90800</v>
+        <v>22333</v>
       </c>
       <c r="X206" s="4">
         <v>125.65</v>
@@ -21113,7 +21113,7 @@
         <v>93.7</v>
       </c>
       <c r="W207" s="4">
-        <v>93700</v>
+        <v>23519</v>
       </c>
       <c r="X207" s="4">
         <v>186.51</v>
@@ -21205,7 +21205,7 @@
         <v>94</v>
       </c>
       <c r="W208" s="4">
-        <v>94000</v>
+        <v>34536</v>
       </c>
       <c r="X208" s="4">
         <v>187.1</v>
@@ -21297,7 +21297,7 @@
         <v>98.7</v>
       </c>
       <c r="W209" s="4">
-        <v>98700</v>
+        <v>39815</v>
       </c>
       <c r="X209" s="4">
         <v>196.46</v>
@@ -21389,7 +21389,7 @@
         <v>118</v>
       </c>
       <c r="W210" s="4">
-        <v>118000</v>
+        <v>62119</v>
       </c>
       <c r="X210" s="4">
         <v>234.88</v>
@@ -21481,7 +21481,7 @@
         <v>104.5</v>
       </c>
       <c r="W211" s="4">
-        <v>104500</v>
+        <v>57071</v>
       </c>
       <c r="X211" s="4">
         <f>AVERAGE(X210,X237)</f>
@@ -21574,7 +21574,7 @@
         <v>98.2</v>
       </c>
       <c r="W212" s="4">
-        <v>98200</v>
+        <v>17330</v>
       </c>
       <c r="X212" s="4">
         <f t="shared" ref="X212:X236" si="15">AVERAGE(X211,X238)</f>
@@ -21667,7 +21667,7 @@
         <v>96</v>
       </c>
       <c r="W213" s="4">
-        <v>96000</v>
+        <v>12823</v>
       </c>
       <c r="X213" s="4">
         <f t="shared" si="15"/>
@@ -21760,7 +21760,7 @@
         <v>89.5</v>
       </c>
       <c r="W214" s="4">
-        <v>89500</v>
+        <v>7142</v>
       </c>
       <c r="X214" s="4">
         <f t="shared" si="15"/>
@@ -21853,7 +21853,7 @@
         <v>92.4</v>
       </c>
       <c r="W215" s="4">
-        <v>92400</v>
+        <v>16046</v>
       </c>
       <c r="X215" s="4">
         <f t="shared" si="15"/>
@@ -21946,7 +21946,7 @@
         <v>51</v>
       </c>
       <c r="W216" s="4">
-        <v>51000</v>
+        <v>14066</v>
       </c>
       <c r="X216" s="4">
         <f t="shared" si="15"/>
@@ -22039,7 +22039,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="W217" s="4">
-        <v>67900</v>
+        <v>17601</v>
       </c>
       <c r="X217" s="4">
         <f t="shared" si="15"/>
@@ -22132,7 +22132,7 @@
         <v>74.3</v>
       </c>
       <c r="W218" s="4">
-        <v>74300</v>
+        <v>18835</v>
       </c>
       <c r="X218" s="4">
         <f t="shared" si="15"/>
@@ -22226,7 +22226,7 @@
         <v>80.400000000000006</v>
       </c>
       <c r="W219" s="4">
-        <v>80400</v>
+        <v>12952</v>
       </c>
       <c r="X219" s="4">
         <f t="shared" si="15"/>
@@ -22320,7 +22320,7 @@
         <v>79.3</v>
       </c>
       <c r="W220" s="4">
-        <v>79300</v>
+        <v>11695</v>
       </c>
       <c r="X220" s="4">
         <f t="shared" si="15"/>
@@ -22414,7 +22414,7 @@
         <v>74.7</v>
       </c>
       <c r="W221" s="4">
-        <v>74700</v>
+        <v>5243</v>
       </c>
       <c r="X221" s="4">
         <f t="shared" si="15"/>
@@ -22508,7 +22508,7 @@
         <v>79.7</v>
       </c>
       <c r="W222" s="4">
-        <v>79700</v>
+        <v>6315</v>
       </c>
       <c r="X222" s="4">
         <f t="shared" si="15"/>
@@ -22602,7 +22602,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="W223" s="4">
-        <v>75600</v>
+        <v>14618</v>
       </c>
       <c r="X223" s="4">
         <f t="shared" si="15"/>
@@ -22696,7 +22696,7 @@
         <v>73.3</v>
       </c>
       <c r="W224" s="4">
-        <v>73300</v>
+        <v>9553</v>
       </c>
       <c r="X224" s="4">
         <f t="shared" si="15"/>
@@ -22790,7 +22790,7 @@
         <v>74.5</v>
       </c>
       <c r="W225" s="4">
-        <v>74500</v>
+        <v>12612</v>
       </c>
       <c r="X225" s="4">
         <f t="shared" si="15"/>
@@ -22884,7 +22884,7 @@
         <v>66.7</v>
       </c>
       <c r="W226" s="4">
-        <v>66700</v>
+        <v>7740</v>
       </c>
       <c r="X226" s="4">
         <f t="shared" si="15"/>
@@ -22979,7 +22979,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="W227" s="4">
-        <v>66400</v>
+        <v>2809</v>
       </c>
       <c r="X227" s="4">
         <f t="shared" si="15"/>
@@ -23073,7 +23073,7 @@
         <v>65.900000000000006</v>
       </c>
       <c r="W228" s="4">
-        <v>65900</v>
+        <v>5240</v>
       </c>
       <c r="X228" s="4">
         <f t="shared" si="15"/>
@@ -23167,7 +23167,7 @@
         <v>68.7</v>
       </c>
       <c r="W229" s="4">
-        <v>68700</v>
+        <v>9938</v>
       </c>
       <c r="X229" s="4">
         <f t="shared" si="15"/>
@@ -23261,7 +23261,7 @@
         <v>59.6</v>
       </c>
       <c r="W230" s="4">
-        <v>59600</v>
+        <v>9523</v>
       </c>
       <c r="X230" s="4">
         <f t="shared" si="15"/>
@@ -23355,7 +23355,7 @@
         <v>75.5</v>
       </c>
       <c r="W231" s="4">
-        <v>75500</v>
+        <v>9373</v>
       </c>
       <c r="X231" s="4">
         <f t="shared" si="15"/>
@@ -23449,7 +23449,7 @@
         <v>73.900000000000006</v>
       </c>
       <c r="W232" s="4">
-        <v>73900</v>
+        <v>27973</v>
       </c>
       <c r="X232" s="4">
         <f t="shared" si="15"/>
@@ -23543,7 +23543,7 @@
         <v>74.099999999999994</v>
       </c>
       <c r="W233" s="4">
-        <v>74100</v>
+        <v>14688</v>
       </c>
       <c r="X233" s="4">
         <f t="shared" si="15"/>
@@ -23637,7 +23637,7 @@
         <v>66.8</v>
       </c>
       <c r="W234" s="4">
-        <v>66800</v>
+        <v>4554</v>
       </c>
       <c r="X234" s="4">
         <f t="shared" si="15"/>
@@ -23731,7 +23731,7 @@
         <v>64.900000000000006</v>
       </c>
       <c r="W235" s="4">
-        <v>64900.000000000007</v>
+        <v>4375</v>
       </c>
       <c r="X235" s="4">
         <f t="shared" si="15"/>
@@ -23825,7 +23825,7 @@
         <v>66.3</v>
       </c>
       <c r="W236" s="4">
-        <v>66300</v>
+        <v>3597</v>
       </c>
       <c r="X236" s="4">
         <f t="shared" si="15"/>
@@ -23919,7 +23919,7 @@
         <v>101</v>
       </c>
       <c r="W237" s="4">
-        <v>101000</v>
+        <v>75437</v>
       </c>
       <c r="X237" s="4">
         <v>402.4</v>
@@ -24012,7 +24012,7 @@
         <v>80.5</v>
       </c>
       <c r="W238" s="4">
-        <v>80500</v>
+        <v>55191</v>
       </c>
       <c r="X238" s="4">
         <v>320.72000000000003</v>
@@ -24105,7 +24105,7 @@
         <v>88.6</v>
       </c>
       <c r="W239" s="4">
-        <v>88600</v>
+        <v>24862</v>
       </c>
       <c r="X239" s="4">
         <v>352.99</v>
@@ -24198,7 +24198,7 @@
         <v>95</v>
       </c>
       <c r="W240" s="4">
-        <v>95000</v>
+        <v>54614</v>
       </c>
       <c r="X240" s="4">
         <v>378.49</v>
@@ -24291,7 +24291,7 @@
         <v>81.7</v>
       </c>
       <c r="W241" s="4">
-        <v>81700</v>
+        <v>20062</v>
       </c>
       <c r="X241" s="4">
         <v>325.5</v>
@@ -24384,7 +24384,7 @@
         <v>88.7</v>
       </c>
       <c r="W242" s="4">
-        <v>88700</v>
+        <v>11431</v>
       </c>
       <c r="X242" s="4">
         <v>353.39</v>
@@ -24477,7 +24477,7 @@
         <v>75.5</v>
       </c>
       <c r="W243" s="4">
-        <v>75500</v>
+        <v>19364</v>
       </c>
       <c r="X243" s="4">
         <v>320.72000000000003</v>
@@ -24570,7 +24570,7 @@
         <v>82.4</v>
       </c>
       <c r="W244" s="4">
-        <v>82400</v>
+        <v>19089</v>
       </c>
       <c r="X244" s="4">
         <v>352.99</v>
@@ -24663,7 +24663,7 @@
         <v>82.7</v>
       </c>
       <c r="W245" s="4">
-        <v>82700</v>
+        <v>14470</v>
       </c>
       <c r="X245" s="4">
         <v>378.49</v>
@@ -24756,7 +24756,7 @@
         <v>48.3</v>
       </c>
       <c r="W246" s="4">
-        <v>48300</v>
+        <v>19121</v>
       </c>
       <c r="X246" s="4">
         <v>325.5</v>
@@ -24849,7 +24849,7 @@
         <v>45.4</v>
       </c>
       <c r="W247" s="4">
-        <v>45400</v>
+        <v>11573</v>
       </c>
       <c r="X247" s="4">
         <v>353.39</v>
@@ -24942,7 +24942,7 @@
         <v>50.3</v>
       </c>
       <c r="W248" s="4">
-        <v>50300</v>
+        <v>21571</v>
       </c>
       <c r="X248" s="4">
         <v>320.72000000000003</v>
@@ -25035,7 +25035,7 @@
         <v>65.099999999999994</v>
       </c>
       <c r="W249" s="4">
-        <v>65099.999999999993</v>
+        <v>95333</v>
       </c>
       <c r="X249" s="4">
         <v>352.99</v>
@@ -25128,7 +25128,7 @@
         <v>64.8</v>
       </c>
       <c r="W250" s="4">
-        <v>64800</v>
+        <v>44549</v>
       </c>
       <c r="X250" s="4">
         <v>378.49</v>
@@ -25221,7 +25221,7 @@
         <v>57.1</v>
       </c>
       <c r="W251" s="4">
-        <v>57100</v>
+        <v>22328</v>
       </c>
       <c r="X251" s="4">
         <v>325.5</v>
@@ -25314,7 +25314,7 @@
         <v>62.4</v>
       </c>
       <c r="W252" s="4">
-        <v>62400</v>
+        <v>16737</v>
       </c>
       <c r="X252" s="4">
         <v>353.39</v>
@@ -25407,7 +25407,7 @@
         <v>73</v>
       </c>
       <c r="W253" s="4">
-        <v>73000</v>
+        <v>35099</v>
       </c>
       <c r="X253" s="4">
         <v>320.72000000000003</v>
@@ -25500,7 +25500,7 @@
         <v>81.599999999999994</v>
       </c>
       <c r="W254" s="4">
-        <v>81600</v>
+        <v>133685</v>
       </c>
       <c r="X254" s="4">
         <v>352.99</v>
@@ -25593,7 +25593,7 @@
         <v>100.5</v>
       </c>
       <c r="W255" s="4">
-        <v>100500</v>
+        <v>167624</v>
       </c>
       <c r="X255" s="4">
         <v>378.49</v>
@@ -25686,7 +25686,7 @@
         <v>85.7</v>
       </c>
       <c r="W256" s="4">
-        <v>85700</v>
+        <v>163168</v>
       </c>
       <c r="X256" s="4">
         <v>325.5</v>
@@ -25779,7 +25779,7 @@
         <v>68.099999999999994</v>
       </c>
       <c r="W257" s="4">
-        <v>68100</v>
+        <v>43160</v>
       </c>
       <c r="X257" s="4">
         <v>353.39</v>
@@ -25872,7 +25872,7 @@
         <v>65.7</v>
       </c>
       <c r="W258" s="4">
-        <v>65700</v>
+        <v>23609</v>
       </c>
       <c r="X258" s="4">
         <v>320.72000000000003</v>
@@ -25964,7 +25964,7 @@
         <v>68.400000000000006</v>
       </c>
       <c r="W259" s="4">
-        <v>68400</v>
+        <v>22456</v>
       </c>
       <c r="X259" s="4">
         <v>352.99</v>
@@ -26056,7 +26056,7 @@
         <v>78.5</v>
       </c>
       <c r="W260" s="4">
-        <v>78500</v>
+        <v>51560</v>
       </c>
       <c r="X260" s="4">
         <v>378.49</v>
@@ -26148,7 +26148,7 @@
         <v>77</v>
       </c>
       <c r="W261" s="4">
-        <v>77000</v>
+        <v>62475</v>
       </c>
       <c r="X261" s="4">
         <v>325.5</v>
@@ -26240,7 +26240,7 @@
         <v>77.3</v>
       </c>
       <c r="W262" s="4">
-        <v>77300</v>
+        <v>71017</v>
       </c>
       <c r="X262" s="4">
         <v>353.39</v>
@@ -26332,7 +26332,7 @@
         <v>74.8</v>
       </c>
       <c r="W263" s="4">
-        <v>74800</v>
+        <v>11935</v>
       </c>
       <c r="X263" s="4">
         <v>320.72000000000003</v>
@@ -26424,7 +26424,7 @@
         <v>69.900000000000006</v>
       </c>
       <c r="W264" s="4">
-        <v>69900</v>
+        <v>22411</v>
       </c>
       <c r="X264" s="4">
         <v>352.99</v>
@@ -26516,7 +26516,7 @@
         <v>70.8</v>
       </c>
       <c r="W265" s="4">
-        <v>70800</v>
+        <v>10736</v>
       </c>
       <c r="X265" s="4">
         <v>378.49</v>
@@ -26608,7 +26608,7 @@
         <v>71.5</v>
       </c>
       <c r="W266" s="4">
-        <v>71500</v>
+        <v>13850</v>
       </c>
       <c r="X266" s="4">
         <v>325.5</v>
@@ -26700,7 +26700,7 @@
         <v>74.8</v>
       </c>
       <c r="W267" s="4">
-        <v>74800</v>
+        <v>26401</v>
       </c>
       <c r="X267" s="4">
         <v>353.39</v>
@@ -26796,7 +26796,7 @@
         <v>64.8</v>
       </c>
       <c r="W268" s="4">
-        <v>64800</v>
+        <v>21636</v>
       </c>
       <c r="X268" s="4">
         <v>320.72000000000003</v>
@@ -26892,7 +26892,7 @@
         <v>63.3</v>
       </c>
       <c r="W269" s="4">
-        <v>63300</v>
+        <v>10361</v>
       </c>
       <c r="X269" s="4">
         <v>352.99</v>
@@ -26988,7 +26988,7 @@
         <v>63.3</v>
       </c>
       <c r="W270" s="4">
-        <v>63300</v>
+        <v>13713</v>
       </c>
       <c r="X270" s="4">
         <v>378.49</v>
@@ -61936,8 +61936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J272"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -61994,7 +61994,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="C2" s="4">
-        <v>33700</v>
+        <v>4212</v>
       </c>
       <c r="D2" s="4">
         <v>15.99</v>
@@ -62026,7 +62026,7 @@
         <v>30.6</v>
       </c>
       <c r="C3" s="4">
-        <v>30600</v>
+        <v>2416</v>
       </c>
       <c r="D3" s="4">
         <f>ROUND(AVERAGE(D2,D15),2)</f>
@@ -62059,7 +62059,7 @@
         <v>39.299999999999997</v>
       </c>
       <c r="C4" s="4">
-        <v>39300</v>
+        <v>5821</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:D13" si="0">ROUND(AVERAGE(D3,D16),2)</f>
@@ -62092,7 +62092,7 @@
         <v>37.1</v>
       </c>
       <c r="C5" s="4">
-        <v>37100</v>
+        <v>4351</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -62125,7 +62125,7 @@
         <v>38.299999999999997</v>
       </c>
       <c r="C6" s="4">
-        <v>38300</v>
+        <v>4730</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -62158,7 +62158,7 @@
         <v>29.3</v>
       </c>
       <c r="C7" s="4">
-        <v>29300</v>
+        <v>6791</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
@@ -62191,7 +62191,7 @@
         <v>27.7</v>
       </c>
       <c r="C8" s="4">
-        <v>27700</v>
+        <v>6693</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -62224,7 +62224,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="C9" s="4">
-        <v>32299.999999999996</v>
+        <v>14768</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -62257,7 +62257,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="4">
-        <v>35000</v>
+        <v>10957</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
@@ -62290,7 +62290,7 @@
         <v>37.799999999999997</v>
       </c>
       <c r="C11" s="4">
-        <v>37800</v>
+        <v>8895</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -62323,7 +62323,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="C12" s="4">
-        <v>32200.000000000004</v>
+        <v>4008</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -62356,7 +62356,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="C13" s="4">
-        <v>33700</v>
+        <v>3272</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
@@ -62389,7 +62389,7 @@
         <v>33.5</v>
       </c>
       <c r="C14" s="4">
-        <v>33500</v>
+        <v>5801</v>
       </c>
       <c r="D14" s="4">
         <f>ROUND(AVERAGE(D13,D26),2)</f>
@@ -62422,7 +62422,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="4">
-        <v>35000</v>
+        <v>8127</v>
       </c>
       <c r="D15" s="4">
         <v>9.93</v>
@@ -62454,7 +62454,7 @@
         <v>43.7</v>
       </c>
       <c r="C16" s="4">
-        <v>43700</v>
+        <v>21216</v>
       </c>
       <c r="D16" s="4">
         <v>12.4</v>
@@ -62486,7 +62486,7 @@
         <v>38.4</v>
       </c>
       <c r="C17" s="4">
-        <v>38400</v>
+        <v>12203</v>
       </c>
       <c r="D17" s="4">
         <v>10.9</v>
@@ -62518,7 +62518,7 @@
         <v>37.9</v>
       </c>
       <c r="C18" s="4">
-        <v>37900</v>
+        <v>2694</v>
       </c>
       <c r="D18" s="4">
         <v>10.76</v>
@@ -62550,7 +62550,7 @@
         <v>31.2</v>
       </c>
       <c r="C19" s="4">
-        <v>31200</v>
+        <v>2605</v>
       </c>
       <c r="D19" s="4">
         <v>8.5</v>
@@ -62582,7 +62582,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="4">
-        <v>39000</v>
+        <v>7036</v>
       </c>
       <c r="D20" s="4">
         <v>10.62</v>
@@ -62614,7 +62614,7 @@
         <v>37.5</v>
       </c>
       <c r="C21" s="4">
-        <v>37500</v>
+        <v>6721</v>
       </c>
       <c r="D21" s="4">
         <v>8.42</v>
@@ -62646,7 +62646,7 @@
         <v>38.200000000000003</v>
       </c>
       <c r="C22" s="4">
-        <v>38200</v>
+        <v>10082</v>
       </c>
       <c r="D22" s="4">
         <v>8.58</v>
@@ -62678,7 +62678,7 @@
         <v>39.9</v>
       </c>
       <c r="C23" s="4">
-        <v>39900</v>
+        <v>11278</v>
       </c>
       <c r="D23" s="4">
         <v>8.9600000000000009</v>
@@ -62710,7 +62710,7 @@
         <v>34.6</v>
       </c>
       <c r="C24" s="4">
-        <v>34600</v>
+        <v>7613</v>
       </c>
       <c r="D24" s="4">
         <v>7.84</v>
@@ -62742,7 +62742,7 @@
         <v>37.700000000000003</v>
       </c>
       <c r="C25" s="4">
-        <v>37700</v>
+        <v>15061</v>
       </c>
       <c r="D25" s="4">
         <v>8.5399999999999991</v>
@@ -62774,7 +62774,7 @@
         <v>32.6</v>
       </c>
       <c r="C26" s="4">
-        <v>32600</v>
+        <v>12112</v>
       </c>
       <c r="D26" s="4">
         <v>7.39</v>
@@ -62806,7 +62806,7 @@
         <v>29.9</v>
       </c>
       <c r="C27" s="4">
-        <v>29900</v>
+        <v>2542</v>
       </c>
       <c r="D27" s="4">
         <v>9.6999999999999993</v>
@@ -62838,7 +62838,7 @@
         <v>22.3</v>
       </c>
       <c r="C28" s="4">
-        <v>22300</v>
+        <v>1837</v>
       </c>
       <c r="D28" s="4">
         <v>7.24</v>
@@ -62870,7 +62870,7 @@
         <v>20.5</v>
       </c>
       <c r="C29" s="4">
-        <v>20500</v>
+        <v>1492</v>
       </c>
       <c r="D29" s="4">
         <v>8.01</v>
@@ -62902,7 +62902,7 @@
         <v>18.5</v>
       </c>
       <c r="C30" s="4">
-        <v>18500</v>
+        <v>1731</v>
       </c>
       <c r="D30" s="4">
         <v>7.23</v>
@@ -62934,7 +62934,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="C31" s="4">
-        <v>17600</v>
+        <v>1515</v>
       </c>
       <c r="D31" s="4">
         <v>6.02</v>
@@ -62966,7 +62966,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="C32" s="4">
-        <v>18400</v>
+        <v>1531</v>
       </c>
       <c r="D32" s="4">
         <v>6.29</v>
@@ -62998,7 +62998,7 @@
         <v>20.3</v>
       </c>
       <c r="C33" s="4">
-        <v>20300</v>
+        <v>2640</v>
       </c>
       <c r="D33" s="4">
         <v>9.73</v>
@@ -63030,7 +63030,7 @@
         <v>19.3</v>
       </c>
       <c r="C34" s="4">
-        <v>19300</v>
+        <v>3794</v>
       </c>
       <c r="D34" s="4">
         <v>9.25</v>
@@ -63062,7 +63062,7 @@
         <v>19.7</v>
       </c>
       <c r="C35" s="4">
-        <v>19700</v>
+        <v>3078</v>
       </c>
       <c r="D35" s="4">
         <v>9.4499999999999993</v>
@@ -63094,7 +63094,7 @@
         <v>20</v>
       </c>
       <c r="C36" s="4">
-        <v>20000</v>
+        <v>4903</v>
       </c>
       <c r="D36" s="4">
         <v>9.59</v>
@@ -63126,7 +63126,7 @@
         <v>17.149999999999999</v>
       </c>
       <c r="C37" s="4">
-        <v>17150</v>
+        <v>2290</v>
       </c>
       <c r="D37" s="4">
         <v>8.2200000000000006</v>
@@ -63158,7 +63158,7 @@
         <v>15.4</v>
       </c>
       <c r="C38" s="4">
-        <v>15400</v>
+        <v>2518</v>
       </c>
       <c r="D38" s="4">
         <v>7.38</v>
@@ -63190,7 +63190,7 @@
         <v>15.9</v>
       </c>
       <c r="C39" s="4">
-        <v>15900</v>
+        <v>2082</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" ref="D39:D70" si="1">F39/B39</f>
@@ -63223,7 +63223,7 @@
         <v>15.6</v>
       </c>
       <c r="C40" s="4">
-        <v>15600</v>
+        <v>1841</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="1"/>
@@ -63256,7 +63256,7 @@
         <v>11.85</v>
       </c>
       <c r="C41" s="4">
-        <v>11850</v>
+        <v>2269</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" si="1"/>
@@ -63289,7 +63289,7 @@
         <v>10.3</v>
       </c>
       <c r="C42" s="4">
-        <v>10300</v>
+        <v>2646</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" si="1"/>
@@ -63322,7 +63322,7 @@
         <v>8.48</v>
       </c>
       <c r="C43" s="4">
-        <v>8480</v>
+        <v>1590</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" si="1"/>
@@ -63355,7 +63355,7 @@
         <v>10.15</v>
       </c>
       <c r="C44" s="4">
-        <v>10150</v>
+        <v>1997</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="1"/>
@@ -63388,7 +63388,7 @@
         <v>10.25</v>
       </c>
       <c r="C45" s="4">
-        <v>10250</v>
+        <v>4603</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" si="1"/>
@@ -63421,7 +63421,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="C46" s="4">
-        <v>10050</v>
+        <v>2974</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" si="1"/>
@@ -63454,7 +63454,7 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="C47" s="4">
-        <v>9280</v>
+        <v>1379</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" si="1"/>
@@ -63487,7 +63487,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C48" s="4">
-        <v>8200</v>
+        <v>1897</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" si="1"/>
@@ -63520,7 +63520,7 @@
         <v>8.9700000000000006</v>
       </c>
       <c r="C49" s="4">
-        <v>8970</v>
+        <v>3283</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" si="1"/>
@@ -63553,7 +63553,7 @@
         <v>9.4600000000000009</v>
       </c>
       <c r="C50" s="4">
-        <v>9460</v>
+        <v>4291</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" si="1"/>
@@ -63586,7 +63586,7 @@
         <v>7.84</v>
       </c>
       <c r="C51" s="4">
-        <v>7840</v>
+        <v>1406</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" si="1"/>
@@ -63619,7 +63619,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="4">
-        <v>7000</v>
+        <v>1490</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" si="1"/>
@@ -63652,7 +63652,7 @@
         <v>6.64</v>
       </c>
       <c r="C53" s="4">
-        <v>6640</v>
+        <v>1077</v>
       </c>
       <c r="D53" s="4">
         <f t="shared" si="1"/>
@@ -63685,7 +63685,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="C54" s="4">
-        <v>9120</v>
+        <v>11718</v>
       </c>
       <c r="D54" s="4">
         <f t="shared" si="1"/>
@@ -63718,7 +63718,7 @@
         <v>10.25</v>
       </c>
       <c r="C55" s="4">
-        <v>10250</v>
+        <v>18821</v>
       </c>
       <c r="D55" s="4">
         <f t="shared" si="1"/>
@@ -63751,7 +63751,7 @@
         <v>9.9</v>
       </c>
       <c r="C56" s="4">
-        <v>9900</v>
+        <v>14237</v>
       </c>
       <c r="D56" s="4">
         <f t="shared" si="1"/>
@@ -63784,7 +63784,7 @@
         <v>11.7</v>
       </c>
       <c r="C57" s="4">
-        <v>11700</v>
+        <v>14412</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" si="1"/>
@@ -63817,7 +63817,7 @@
         <v>12.75</v>
       </c>
       <c r="C58" s="4">
-        <v>12750</v>
+        <v>31126</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="1"/>
@@ -63850,7 +63850,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="4">
-        <v>16000</v>
+        <v>13665</v>
       </c>
       <c r="D59" s="4">
         <f t="shared" si="1"/>
@@ -63883,7 +63883,7 @@
         <v>15.5</v>
       </c>
       <c r="C60" s="4">
-        <v>15500</v>
+        <v>16895</v>
       </c>
       <c r="D60" s="4">
         <f t="shared" si="1"/>
@@ -63916,7 +63916,7 @@
         <v>19</v>
       </c>
       <c r="C61" s="4">
-        <v>19000</v>
+        <v>24445</v>
       </c>
       <c r="D61" s="4">
         <f t="shared" si="1"/>
@@ -63949,7 +63949,7 @@
         <v>6.01</v>
       </c>
       <c r="C62" s="4">
-        <v>6010</v>
+        <v>5594</v>
       </c>
       <c r="D62" s="4">
         <f t="shared" si="1"/>
@@ -63982,7 +63982,7 @@
         <v>11.05</v>
       </c>
       <c r="C63" s="4">
-        <v>11050</v>
+        <v>3559</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" si="1"/>
@@ -64015,7 +64015,7 @@
         <v>13.9</v>
       </c>
       <c r="C64" s="4">
-        <v>13900</v>
+        <v>3756</v>
       </c>
       <c r="D64" s="4">
         <f t="shared" si="1"/>
@@ -64048,7 +64048,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="C65" s="4">
-        <v>10050</v>
+        <v>1675</v>
       </c>
       <c r="D65" s="4">
         <f t="shared" si="1"/>
@@ -64081,7 +64081,7 @@
         <v>9.74</v>
       </c>
       <c r="C66" s="4">
-        <v>9740</v>
+        <v>734</v>
       </c>
       <c r="D66" s="4">
         <f t="shared" si="1"/>
@@ -64114,7 +64114,7 @@
         <v>8.25</v>
       </c>
       <c r="C67" s="4">
-        <v>8250</v>
+        <v>791</v>
       </c>
       <c r="D67" s="4">
         <f t="shared" si="1"/>
@@ -64147,7 +64147,7 @@
         <v>9.6199999999999992</v>
       </c>
       <c r="C68" s="4">
-        <v>9620</v>
+        <v>1165</v>
       </c>
       <c r="D68" s="4">
         <f t="shared" si="1"/>
@@ -64180,7 +64180,7 @@
         <v>10</v>
       </c>
       <c r="C69" s="4">
-        <v>10000</v>
+        <v>934</v>
       </c>
       <c r="D69" s="4">
         <f t="shared" si="1"/>
@@ -64213,7 +64213,7 @@
         <v>16.5</v>
       </c>
       <c r="C70" s="4">
-        <v>16500</v>
+        <v>642</v>
       </c>
       <c r="D70" s="4">
         <f t="shared" si="1"/>
@@ -64246,7 +64246,7 @@
         <v>16.2</v>
       </c>
       <c r="C71" s="4">
-        <v>16200</v>
+        <v>75</v>
       </c>
       <c r="D71" s="4">
         <f t="shared" ref="D71:D92" si="2">F71/B71</f>
@@ -64279,7 +64279,7 @@
         <v>12.95</v>
       </c>
       <c r="C72" s="4">
-        <v>12950</v>
+        <v>369</v>
       </c>
       <c r="D72" s="4">
         <f t="shared" si="2"/>
@@ -64312,7 +64312,7 @@
         <v>14.4</v>
       </c>
       <c r="C73" s="4">
-        <v>14400</v>
+        <v>520</v>
       </c>
       <c r="D73" s="4">
         <f t="shared" si="2"/>
@@ -64345,7 +64345,7 @@
         <v>15.5</v>
       </c>
       <c r="C74" s="4">
-        <v>15500</v>
+        <v>329</v>
       </c>
       <c r="D74" s="4">
         <f t="shared" si="2"/>
@@ -64378,7 +64378,7 @@
         <v>13.7</v>
       </c>
       <c r="C75" s="4">
-        <v>13700</v>
+        <v>211</v>
       </c>
       <c r="D75" s="4">
         <f t="shared" si="2"/>
@@ -64411,7 +64411,7 @@
         <v>13.2</v>
       </c>
       <c r="C76" s="4">
-        <v>13200</v>
+        <v>202</v>
       </c>
       <c r="D76" s="4">
         <f t="shared" si="2"/>
@@ -64444,7 +64444,7 @@
         <v>11.2</v>
       </c>
       <c r="C77" s="4">
-        <v>11200</v>
+        <v>53</v>
       </c>
       <c r="D77" s="4">
         <f t="shared" si="2"/>
@@ -64477,7 +64477,7 @@
         <v>10.8</v>
       </c>
       <c r="C78" s="4">
-        <v>10800</v>
+        <v>202</v>
       </c>
       <c r="D78" s="4">
         <f t="shared" si="2"/>
@@ -64510,7 +64510,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="4">
-        <v>10000</v>
+        <v>1070</v>
       </c>
       <c r="D79" s="4">
         <f t="shared" si="2"/>
@@ -64543,7 +64543,7 @@
         <v>9.9</v>
       </c>
       <c r="C80" s="4">
-        <v>9900</v>
+        <v>435</v>
       </c>
       <c r="D80" s="4">
         <f t="shared" si="2"/>
@@ -64576,7 +64576,7 @@
         <v>19.5</v>
       </c>
       <c r="C81" s="4">
-        <v>19500</v>
+        <v>1035</v>
       </c>
       <c r="D81" s="4">
         <f t="shared" si="2"/>
@@ -64609,7 +64609,7 @@
         <v>19.5</v>
       </c>
       <c r="C82" s="4">
-        <v>19500</v>
+        <v>359</v>
       </c>
       <c r="D82" s="4">
         <f t="shared" si="2"/>
@@ -64642,7 +64642,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="C83" s="4">
-        <v>17600</v>
+        <v>148</v>
       </c>
       <c r="D83" s="4">
         <f t="shared" si="2"/>
@@ -64675,7 +64675,7 @@
         <v>14.35</v>
       </c>
       <c r="C84" s="4">
-        <v>14350</v>
+        <v>1952</v>
       </c>
       <c r="D84" s="4">
         <f t="shared" si="2"/>
@@ -64708,7 +64708,7 @@
         <v>23.6</v>
       </c>
       <c r="C85" s="4">
-        <v>23600</v>
+        <v>1190</v>
       </c>
       <c r="D85" s="4">
         <f t="shared" si="2"/>
@@ -64741,7 +64741,7 @@
         <v>48.85</v>
       </c>
       <c r="C86" s="4">
-        <v>48850</v>
+        <v>4859</v>
       </c>
       <c r="D86" s="4">
         <f t="shared" si="2"/>
@@ -64774,7 +64774,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="C87" s="4">
-        <v>34300</v>
+        <v>1507</v>
       </c>
       <c r="D87" s="4">
         <f t="shared" si="2"/>
@@ -64807,7 +64807,7 @@
         <v>36.549999999999997</v>
       </c>
       <c r="C88" s="4">
-        <v>36550</v>
+        <v>840</v>
       </c>
       <c r="D88" s="4">
         <f t="shared" si="2"/>
@@ -64840,7 +64840,7 @@
         <v>31.8</v>
       </c>
       <c r="C89" s="4">
-        <v>31800</v>
+        <v>660</v>
       </c>
       <c r="D89" s="4">
         <f t="shared" si="2"/>
@@ -64873,7 +64873,7 @@
         <v>29.8</v>
       </c>
       <c r="C90" s="4">
-        <v>29800</v>
+        <v>1341</v>
       </c>
       <c r="D90" s="4">
         <f t="shared" si="2"/>
@@ -64906,7 +64906,7 @@
         <v>30.5</v>
       </c>
       <c r="C91" s="4">
-        <v>30500</v>
+        <v>730</v>
       </c>
       <c r="D91" s="4">
         <f t="shared" si="2"/>
@@ -64939,7 +64939,7 @@
         <v>34.9</v>
       </c>
       <c r="C92" s="4">
-        <v>34900</v>
+        <v>807</v>
       </c>
       <c r="D92" s="4">
         <f t="shared" si="2"/>
@@ -64972,7 +64972,7 @@
         <v>39</v>
       </c>
       <c r="C93" s="4">
-        <v>39000</v>
+        <v>887</v>
       </c>
       <c r="D93" s="4">
         <v>66.53</v>
@@ -65004,7 +65004,7 @@
         <v>36</v>
       </c>
       <c r="C94" s="4">
-        <v>36000</v>
+        <v>858</v>
       </c>
       <c r="D94" s="4">
         <v>61.42</v>
@@ -65036,7 +65036,7 @@
         <v>39</v>
       </c>
       <c r="C95" s="4">
-        <v>39000</v>
+        <v>460</v>
       </c>
       <c r="D95" s="4">
         <v>66.569999999999993</v>
@@ -65068,7 +65068,7 @@
         <v>42</v>
       </c>
       <c r="C96" s="4">
-        <v>42000</v>
+        <v>715</v>
       </c>
       <c r="D96" s="4">
         <v>71.69</v>
@@ -65100,7 +65100,7 @@
         <v>43.05</v>
       </c>
       <c r="C97" s="4">
-        <v>43050</v>
+        <v>645</v>
       </c>
       <c r="D97" s="4">
         <v>89.42</v>
@@ -65132,7 +65132,7 @@
         <v>43.8</v>
       </c>
       <c r="C98" s="4">
-        <v>43800</v>
+        <v>284</v>
       </c>
       <c r="D98" s="4">
         <v>90.99</v>
@@ -65164,7 +65164,7 @@
         <v>40.549999999999997</v>
       </c>
       <c r="C99" s="4">
-        <v>40550</v>
+        <v>558</v>
       </c>
       <c r="D99" s="4">
         <v>38.75</v>
@@ -65196,7 +65196,7 @@
         <v>41.95</v>
       </c>
       <c r="C100" s="4">
-        <v>41950</v>
+        <v>339</v>
       </c>
       <c r="D100" s="4">
         <v>40.1</v>
@@ -65228,7 +65228,7 @@
         <v>40</v>
       </c>
       <c r="C101" s="4">
-        <v>40000</v>
+        <v>302</v>
       </c>
       <c r="D101" s="4">
         <v>44.33</v>
@@ -65260,7 +65260,7 @@
         <v>32.1</v>
       </c>
       <c r="C102" s="4">
-        <v>32100</v>
+        <v>744</v>
       </c>
       <c r="D102" s="4">
         <v>35.799999999999997</v>
@@ -65292,7 +65292,7 @@
         <v>31.3</v>
       </c>
       <c r="C103" s="4">
-        <v>31300</v>
+        <v>330</v>
       </c>
       <c r="D103" s="4">
         <f t="shared" ref="D103:D134" si="3">F103/B103</f>
@@ -65325,7 +65325,7 @@
         <v>29.5</v>
       </c>
       <c r="C104" s="4">
-        <v>29500</v>
+        <v>218</v>
       </c>
       <c r="D104" s="4">
         <f t="shared" si="3"/>
@@ -65358,7 +65358,7 @@
         <v>27.75</v>
       </c>
       <c r="C105" s="4">
-        <v>27750</v>
+        <v>313</v>
       </c>
       <c r="D105" s="4">
         <f t="shared" si="3"/>
@@ -65391,7 +65391,7 @@
         <v>26.5</v>
       </c>
       <c r="C106" s="4">
-        <v>26500</v>
+        <v>363</v>
       </c>
       <c r="D106" s="4">
         <f t="shared" si="3"/>
@@ -65424,7 +65424,7 @@
         <v>25.65</v>
       </c>
       <c r="C107" s="4">
-        <v>25650</v>
+        <v>81</v>
       </c>
       <c r="D107" s="4">
         <f t="shared" si="3"/>
@@ -65457,7 +65457,7 @@
         <v>21.45</v>
       </c>
       <c r="C108" s="4">
-        <v>21450</v>
+        <v>226</v>
       </c>
       <c r="D108" s="4">
         <f t="shared" si="3"/>
@@ -65490,7 +65490,7 @@
         <v>23.8</v>
       </c>
       <c r="C109" s="4">
-        <v>23800</v>
+        <v>189</v>
       </c>
       <c r="D109" s="4">
         <f t="shared" si="3"/>
@@ -65523,7 +65523,7 @@
         <v>20.45</v>
       </c>
       <c r="C110" s="4">
-        <v>20450</v>
+        <v>107</v>
       </c>
       <c r="D110" s="4">
         <f t="shared" si="3"/>
@@ -65556,7 +65556,7 @@
         <v>20.6</v>
       </c>
       <c r="C111" s="4">
-        <v>20600</v>
+        <v>53</v>
       </c>
       <c r="D111" s="4">
         <f t="shared" si="3"/>
@@ -65589,7 +65589,7 @@
         <v>18.3</v>
       </c>
       <c r="C112" s="4">
-        <v>18300</v>
+        <v>77</v>
       </c>
       <c r="D112" s="4">
         <f t="shared" si="3"/>
@@ -65622,7 +65622,7 @@
         <v>21</v>
       </c>
       <c r="C113" s="4">
-        <v>21000</v>
+        <v>46</v>
       </c>
       <c r="D113" s="4">
         <f t="shared" si="3"/>
@@ -65655,7 +65655,7 @@
         <v>19.5</v>
       </c>
       <c r="C114" s="4">
-        <v>19500</v>
+        <v>44</v>
       </c>
       <c r="D114" s="4">
         <f t="shared" si="3"/>
@@ -65688,7 +65688,7 @@
         <v>19.8</v>
       </c>
       <c r="C115" s="4">
-        <v>19800</v>
+        <v>23</v>
       </c>
       <c r="D115" s="4">
         <f t="shared" si="3"/>
@@ -65721,7 +65721,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="C116" s="4">
-        <v>20100</v>
+        <v>26</v>
       </c>
       <c r="D116" s="4">
         <f t="shared" si="3"/>
@@ -65754,7 +65754,7 @@
         <v>19.2</v>
       </c>
       <c r="C117" s="4">
-        <v>19200</v>
+        <v>53</v>
       </c>
       <c r="D117" s="4">
         <f t="shared" si="3"/>
@@ -65787,7 +65787,7 @@
         <v>22.35</v>
       </c>
       <c r="C118" s="4">
-        <v>22350</v>
+        <v>240</v>
       </c>
       <c r="D118" s="4">
         <f t="shared" si="3"/>
@@ -65820,7 +65820,7 @@
         <v>22</v>
       </c>
       <c r="C119" s="4">
-        <v>22000</v>
+        <v>91</v>
       </c>
       <c r="D119" s="4">
         <f t="shared" si="3"/>
@@ -65853,7 +65853,7 @@
         <v>20.2</v>
       </c>
       <c r="C120" s="4">
-        <v>20200</v>
+        <v>348</v>
       </c>
       <c r="D120" s="4">
         <f t="shared" si="3"/>
@@ -65886,7 +65886,7 @@
         <v>18.5</v>
       </c>
       <c r="C121" s="4">
-        <v>18500</v>
+        <v>95</v>
       </c>
       <c r="D121" s="4">
         <f t="shared" si="3"/>
@@ -65919,7 +65919,7 @@
         <v>18.5</v>
       </c>
       <c r="C122" s="4">
-        <v>18500</v>
+        <v>49</v>
       </c>
       <c r="D122" s="4">
         <f t="shared" si="3"/>
@@ -65952,7 +65952,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="C123" s="4">
-        <v>19400</v>
+        <v>196</v>
       </c>
       <c r="D123" s="4">
         <f t="shared" si="3"/>
@@ -65985,7 +65985,7 @@
         <v>19.95</v>
       </c>
       <c r="C124" s="4">
-        <v>19950</v>
+        <v>67</v>
       </c>
       <c r="D124" s="4">
         <f t="shared" si="3"/>
@@ -66018,7 +66018,7 @@
         <v>18.95</v>
       </c>
       <c r="C125" s="4">
-        <v>18950</v>
+        <v>78</v>
       </c>
       <c r="D125" s="4">
         <f t="shared" si="3"/>
@@ -66051,7 +66051,7 @@
         <v>14.8</v>
       </c>
       <c r="C126" s="4">
-        <v>14800</v>
+        <v>100</v>
       </c>
       <c r="D126" s="4">
         <f t="shared" si="3"/>
@@ -66084,7 +66084,7 @@
         <v>16.8</v>
       </c>
       <c r="C127" s="4">
-        <v>16800</v>
+        <v>97</v>
       </c>
       <c r="D127" s="4">
         <f t="shared" si="3"/>
@@ -66117,7 +66117,7 @@
         <v>14.8</v>
       </c>
       <c r="C128" s="4">
-        <v>14800</v>
+        <v>58</v>
       </c>
       <c r="D128" s="4">
         <f t="shared" si="3"/>
@@ -66150,7 +66150,7 @@
         <v>14</v>
       </c>
       <c r="C129" s="4">
-        <v>14000</v>
+        <v>160</v>
       </c>
       <c r="D129" s="4">
         <f t="shared" si="3"/>
@@ -66183,7 +66183,7 @@
         <v>13.7</v>
       </c>
       <c r="C130" s="4">
-        <v>13700</v>
+        <v>73</v>
       </c>
       <c r="D130" s="4">
         <f t="shared" si="3"/>
@@ -66216,7 +66216,7 @@
         <v>14.5</v>
       </c>
       <c r="C131" s="4">
-        <v>14500</v>
+        <v>72</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="3"/>
@@ -66249,7 +66249,7 @@
         <v>14.2</v>
       </c>
       <c r="C132" s="4">
-        <v>14200</v>
+        <v>56</v>
       </c>
       <c r="D132" s="4">
         <f t="shared" si="3"/>
@@ -66282,7 +66282,7 @@
         <v>15.2</v>
       </c>
       <c r="C133" s="4">
-        <v>15200</v>
+        <v>91</v>
       </c>
       <c r="D133" s="4">
         <f t="shared" si="3"/>
@@ -66315,7 +66315,7 @@
         <v>15</v>
       </c>
       <c r="C134" s="4">
-        <v>15000</v>
+        <v>75</v>
       </c>
       <c r="D134" s="4">
         <f t="shared" si="3"/>
@@ -66348,7 +66348,7 @@
         <v>14.2</v>
       </c>
       <c r="C135" s="4">
-        <v>14200</v>
+        <v>48</v>
       </c>
       <c r="D135" s="4">
         <f t="shared" ref="D135:D158" si="4">F135/B135</f>
@@ -66381,7 +66381,7 @@
         <v>13.2</v>
       </c>
       <c r="C136" s="4">
-        <v>13200</v>
+        <v>3524</v>
       </c>
       <c r="D136" s="4">
         <f t="shared" si="4"/>
@@ -66414,7 +66414,7 @@
         <v>11.5</v>
       </c>
       <c r="C137" s="4">
-        <v>11500</v>
+        <v>1129</v>
       </c>
       <c r="D137" s="4">
         <f t="shared" si="4"/>
@@ -66447,7 +66447,7 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="C138" s="4">
-        <v>9450</v>
+        <v>48</v>
       </c>
       <c r="D138" s="4">
         <f t="shared" si="4"/>
@@ -66480,7 +66480,7 @@
         <v>19.25</v>
       </c>
       <c r="C139" s="4">
-        <v>19250</v>
+        <v>275</v>
       </c>
       <c r="D139" s="4">
         <f t="shared" si="4"/>
@@ -66513,7 +66513,7 @@
         <v>14.4</v>
       </c>
       <c r="C140" s="4">
-        <v>14400</v>
+        <v>62</v>
       </c>
       <c r="D140" s="4">
         <f t="shared" si="4"/>
@@ -66546,7 +66546,7 @@
         <v>16.5</v>
       </c>
       <c r="C141" s="4">
-        <v>16500</v>
+        <v>1583</v>
       </c>
       <c r="D141" s="4">
         <f t="shared" si="4"/>
@@ -66579,7 +66579,7 @@
         <v>33.85</v>
       </c>
       <c r="C142" s="4">
-        <v>33850</v>
+        <v>4251</v>
       </c>
       <c r="D142" s="4">
         <f t="shared" si="4"/>
@@ -66612,7 +66612,7 @@
         <v>41.9</v>
       </c>
       <c r="C143" s="4">
-        <v>41900</v>
+        <v>1120</v>
       </c>
       <c r="D143" s="4">
         <f t="shared" si="4"/>
@@ -66645,7 +66645,7 @@
         <v>52</v>
       </c>
       <c r="C144" s="4">
-        <v>52000</v>
+        <v>1204</v>
       </c>
       <c r="D144" s="4">
         <f t="shared" si="4"/>
@@ -66678,7 +66678,7 @@
         <v>56</v>
       </c>
       <c r="C145" s="4">
-        <v>56000</v>
+        <v>1110</v>
       </c>
       <c r="D145" s="4">
         <f t="shared" si="4"/>
@@ -66711,7 +66711,7 @@
         <v>80</v>
       </c>
       <c r="C146" s="4">
-        <v>80000</v>
+        <v>887</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" si="4"/>
@@ -66744,7 +66744,7 @@
         <v>76</v>
       </c>
       <c r="C147" s="4">
-        <v>76000</v>
+        <v>361</v>
       </c>
       <c r="D147" s="4">
         <f t="shared" si="4"/>
@@ -66777,7 +66777,7 @@
         <v>73</v>
       </c>
       <c r="C148" s="4">
-        <v>73000</v>
+        <v>558</v>
       </c>
       <c r="D148" s="4">
         <f t="shared" si="4"/>
@@ -66810,7 +66810,7 @@
         <v>65</v>
       </c>
       <c r="C149" s="4">
-        <v>65000</v>
+        <v>345</v>
       </c>
       <c r="D149" s="4">
         <f t="shared" si="4"/>
@@ -66843,7 +66843,7 @@
         <v>85</v>
       </c>
       <c r="C150" s="4">
-        <v>85000</v>
+        <v>1361</v>
       </c>
       <c r="D150" s="4">
         <f t="shared" si="4"/>
@@ -66876,7 +66876,7 @@
         <v>71</v>
       </c>
       <c r="C151" s="4">
-        <v>71000</v>
+        <v>1503</v>
       </c>
       <c r="D151" s="4">
         <f t="shared" si="4"/>
@@ -66909,7 +66909,7 @@
         <v>79.099999999999994</v>
       </c>
       <c r="C152" s="4">
-        <v>79100</v>
+        <v>1083</v>
       </c>
       <c r="D152" s="4">
         <f t="shared" si="4"/>
@@ -66942,7 +66942,7 @@
         <v>81.2</v>
       </c>
       <c r="C153" s="4">
-        <v>81200</v>
+        <v>1523</v>
       </c>
       <c r="D153" s="4">
         <f t="shared" si="4"/>
@@ -66975,7 +66975,7 @@
         <v>81</v>
       </c>
       <c r="C154" s="4">
-        <v>81000</v>
+        <v>507</v>
       </c>
       <c r="D154" s="4">
         <f t="shared" si="4"/>
@@ -67008,7 +67008,7 @@
         <v>78.400000000000006</v>
       </c>
       <c r="C155" s="4">
-        <v>78400</v>
+        <v>380</v>
       </c>
       <c r="D155" s="4">
         <f t="shared" si="4"/>
@@ -67041,7 +67041,7 @@
         <v>72.8</v>
       </c>
       <c r="C156" s="4">
-        <v>72800</v>
+        <v>539</v>
       </c>
       <c r="D156" s="4">
         <f t="shared" si="4"/>
@@ -67074,7 +67074,7 @@
         <v>75.900000000000006</v>
       </c>
       <c r="C157" s="4">
-        <v>75900</v>
+        <v>344</v>
       </c>
       <c r="D157" s="4">
         <f t="shared" si="4"/>
@@ -67107,7 +67107,7 @@
         <v>74.5</v>
       </c>
       <c r="C158" s="4">
-        <v>74500</v>
+        <v>242</v>
       </c>
       <c r="D158" s="4">
         <f t="shared" si="4"/>
@@ -67140,7 +67140,7 @@
         <v>70</v>
       </c>
       <c r="C159" s="4">
-        <v>70000</v>
+        <v>180</v>
       </c>
       <c r="D159" s="4">
         <v>152.81</v>
@@ -67172,7 +67172,7 @@
         <v>65.900000000000006</v>
       </c>
       <c r="C160" s="4">
-        <v>65900</v>
+        <v>89</v>
       </c>
       <c r="D160" s="4">
         <v>143.86000000000001</v>
@@ -67204,7 +67204,7 @@
         <v>73.5</v>
       </c>
       <c r="C161" s="4">
-        <v>73500</v>
+        <v>573</v>
       </c>
       <c r="D161" s="4">
         <v>160.44999999999999</v>
@@ -67236,7 +67236,7 @@
         <v>77.599999999999994</v>
       </c>
       <c r="C162" s="4">
-        <v>77600</v>
+        <v>256</v>
       </c>
       <c r="D162" s="4">
         <v>171.74</v>
@@ -67268,7 +67268,7 @@
         <v>95</v>
       </c>
       <c r="C163" s="4">
-        <v>95000</v>
+        <v>1359</v>
       </c>
       <c r="D163" s="4">
         <f>AVERAGE(D162,D165)</f>
@@ -67301,7 +67301,7 @@
         <v>89.7</v>
       </c>
       <c r="C164" s="4">
-        <v>89700</v>
+        <v>1447</v>
       </c>
       <c r="D164" s="4">
         <f>AVERAGE(D163,D166)</f>
@@ -67334,7 +67334,7 @@
         <v>112.5</v>
       </c>
       <c r="C165" s="4">
-        <v>112500</v>
+        <v>21425</v>
       </c>
       <c r="D165" s="4">
         <v>54.58</v>
@@ -67366,7 +67366,7 @@
         <v>114</v>
       </c>
       <c r="C166" s="4">
-        <v>114000</v>
+        <v>32499</v>
       </c>
       <c r="D166" s="4">
         <v>55.31</v>
@@ -67398,7 +67398,7 @@
         <v>95.7</v>
       </c>
       <c r="C167" s="4">
-        <v>95700</v>
+        <v>17574</v>
       </c>
       <c r="D167" s="4">
         <v>46.43</v>
@@ -67430,7 +67430,7 @@
         <v>126.5</v>
       </c>
       <c r="C168" s="4">
-        <v>126500</v>
+        <v>30169</v>
       </c>
       <c r="D168" s="4">
         <v>61.38</v>
@@ -67462,7 +67462,7 @@
         <v>102</v>
       </c>
       <c r="C169" s="4">
-        <v>102000</v>
+        <v>26454</v>
       </c>
       <c r="D169" s="4">
         <v>51.63</v>
@@ -67494,7 +67494,7 @@
         <v>88.6</v>
       </c>
       <c r="C170" s="4">
-        <v>88600</v>
+        <v>18049</v>
       </c>
       <c r="D170" s="4">
         <v>44.84</v>
@@ -67526,7 +67526,7 @@
         <v>96</v>
       </c>
       <c r="C171" s="4">
-        <v>96000</v>
+        <v>15877</v>
       </c>
       <c r="D171" s="4">
         <f>AVERAGE(D170,D183)</f>
@@ -67559,7 +67559,7 @@
         <v>91.7</v>
       </c>
       <c r="C172" s="4">
-        <v>91700</v>
+        <v>12326</v>
       </c>
       <c r="D172" s="4">
         <f>AVERAGE(D171,D184)</f>
@@ -67592,7 +67592,7 @@
         <v>99.3</v>
       </c>
       <c r="C173" s="4">
-        <v>99300</v>
+        <v>15890</v>
       </c>
       <c r="D173" s="4">
         <f t="shared" ref="D173:D176" si="5">AVERAGE(D172,D185)</f>
@@ -67625,7 +67625,7 @@
         <v>125</v>
       </c>
       <c r="C174" s="4">
-        <v>125000</v>
+        <v>10585</v>
       </c>
       <c r="D174" s="4">
         <f t="shared" si="5"/>
@@ -67658,7 +67658,7 @@
         <v>123</v>
       </c>
       <c r="C175" s="4">
-        <v>123000</v>
+        <v>9962</v>
       </c>
       <c r="D175" s="4">
         <f t="shared" si="5"/>
@@ -67691,7 +67691,7 @@
         <v>119.5</v>
       </c>
       <c r="C176" s="4">
-        <v>119500</v>
+        <v>4746</v>
       </c>
       <c r="D176" s="4">
         <f t="shared" si="5"/>
@@ -67724,7 +67724,7 @@
         <v>115.5</v>
       </c>
       <c r="C177" s="4">
-        <v>115500</v>
+        <v>2636</v>
       </c>
       <c r="D177" s="4">
         <f>AVERAGE(D171,D184)</f>
@@ -67757,7 +67757,7 @@
         <v>114</v>
       </c>
       <c r="C178" s="4">
-        <v>114000</v>
+        <v>1253</v>
       </c>
       <c r="D178" s="4">
         <f t="shared" ref="D178:D182" si="6">AVERAGE(D172,D185)</f>
@@ -67790,7 +67790,7 @@
         <v>114</v>
       </c>
       <c r="C179" s="4">
-        <v>114000</v>
+        <v>1651</v>
       </c>
       <c r="D179" s="4">
         <f t="shared" si="6"/>
@@ -67823,7 +67823,7 @@
         <v>124.5</v>
       </c>
       <c r="C180" s="4">
-        <v>124500</v>
+        <v>3804</v>
       </c>
       <c r="D180" s="4">
         <f t="shared" si="6"/>
@@ -67856,7 +67856,7 @@
         <v>129</v>
       </c>
       <c r="C181" s="4">
-        <v>129000</v>
+        <v>2229</v>
       </c>
       <c r="D181" s="4">
         <f t="shared" si="6"/>
@@ -67889,7 +67889,7 @@
         <v>235.5</v>
       </c>
       <c r="C182" s="4">
-        <v>235500</v>
+        <v>34612</v>
       </c>
       <c r="D182" s="4">
         <f t="shared" si="6"/>
@@ -67922,7 +67922,7 @@
         <v>119.5</v>
       </c>
       <c r="C183" s="4">
-        <v>119500</v>
+        <v>49288</v>
       </c>
       <c r="D183" s="4">
         <v>244.27</v>
@@ -67954,7 +67954,7 @@
         <v>91.1</v>
       </c>
       <c r="C184" s="4">
-        <v>91100</v>
+        <v>26430</v>
       </c>
       <c r="D184" s="4">
         <v>186.22</v>
@@ -67986,7 +67986,7 @@
         <v>82.5</v>
       </c>
       <c r="C185" s="4">
-        <v>82500</v>
+        <v>28661</v>
       </c>
       <c r="D185" s="4">
         <v>168.64</v>
@@ -68018,7 +68018,7 @@
         <v>82</v>
       </c>
       <c r="C186" s="4">
-        <v>82000</v>
+        <v>15182</v>
       </c>
       <c r="D186" s="4">
         <v>167.61</v>
@@ -68050,7 +68050,7 @@
         <v>86.5</v>
       </c>
       <c r="C187" s="4">
-        <v>86500</v>
+        <v>34643</v>
       </c>
       <c r="D187" s="4">
         <v>165.17</v>
@@ -68082,7 +68082,7 @@
         <v>88.5</v>
       </c>
       <c r="C188" s="4">
-        <v>88500</v>
+        <v>18780</v>
       </c>
       <c r="D188" s="4">
         <v>167.76</v>
@@ -68114,7 +68114,7 @@
         <v>83.4</v>
       </c>
       <c r="C189" s="4">
-        <v>83400</v>
+        <v>5154</v>
       </c>
       <c r="D189" s="4">
         <v>597.26</v>
@@ -68146,7 +68146,7 @@
         <v>87.8</v>
       </c>
       <c r="C190" s="4">
-        <v>87800</v>
+        <v>14585</v>
       </c>
       <c r="D190" s="4">
         <v>628.77</v>
@@ -68178,7 +68178,7 @@
         <v>82.9</v>
       </c>
       <c r="C191" s="4">
-        <v>82900</v>
+        <v>3175</v>
       </c>
       <c r="D191" s="4">
         <v>593.67999999999995</v>
@@ -68210,7 +68210,7 @@
         <v>79.599999999999994</v>
       </c>
       <c r="C192" s="4">
-        <v>79600</v>
+        <v>14556</v>
       </c>
       <c r="D192" s="4">
         <v>569.94000000000005</v>
@@ -68242,7 +68242,7 @@
         <v>86.6</v>
       </c>
       <c r="C193" s="4">
-        <v>86600</v>
+        <v>12744</v>
       </c>
       <c r="D193" s="4">
         <v>620.05999999999995</v>
@@ -68274,7 +68274,7 @@
         <v>137.5</v>
       </c>
       <c r="C194" s="4">
-        <v>137500</v>
+        <v>40930</v>
       </c>
       <c r="D194" s="4">
         <v>984.51</v>
@@ -68306,7 +68306,7 @@
         <v>108</v>
       </c>
       <c r="C195" s="4">
-        <v>108000</v>
+        <v>33034</v>
       </c>
       <c r="D195" s="4">
         <v>91.46</v>
@@ -68338,7 +68338,7 @@
         <v>129.5</v>
       </c>
       <c r="C196" s="4">
-        <v>129500</v>
+        <v>20283</v>
       </c>
       <c r="D196" s="4">
         <v>109.67</v>
@@ -68370,7 +68370,7 @@
         <v>120.5</v>
       </c>
       <c r="C197" s="4">
-        <v>120500</v>
+        <v>12624</v>
       </c>
       <c r="D197" s="4">
         <v>101.99</v>
@@ -68402,7 +68402,7 @@
         <v>136.5</v>
       </c>
       <c r="C198" s="4">
-        <v>136500</v>
+        <v>25479</v>
       </c>
       <c r="D198" s="4">
         <v>115.53</v>
@@ -68434,7 +68434,7 @@
         <v>80.900000000000006</v>
       </c>
       <c r="C199" s="4">
-        <v>80900</v>
+        <v>29715</v>
       </c>
       <c r="D199" s="4">
         <v>629.01</v>
@@ -68466,7 +68466,7 @@
         <v>105</v>
       </c>
       <c r="C200" s="4">
-        <v>105000</v>
+        <v>16793</v>
       </c>
       <c r="D200" s="4">
         <v>816.39</v>
@@ -68498,7 +68498,7 @@
         <v>114</v>
       </c>
       <c r="C201" s="4">
-        <v>114000</v>
+        <v>14011</v>
       </c>
       <c r="D201" s="4">
         <v>152.94999999999999</v>
@@ -68530,7 +68530,7 @@
         <v>119</v>
       </c>
       <c r="C202" s="4">
-        <v>119000</v>
+        <v>14165</v>
       </c>
       <c r="D202" s="4">
         <v>164.67</v>
@@ -68562,7 +68562,7 @@
         <v>140</v>
       </c>
       <c r="C203" s="4">
-        <v>140000</v>
+        <v>17131</v>
       </c>
       <c r="D203" s="4">
         <v>193.73</v>
@@ -68594,7 +68594,7 @@
         <v>132</v>
       </c>
       <c r="C204" s="4">
-        <v>132000</v>
+        <v>29514</v>
       </c>
       <c r="D204" s="4">
         <v>182.66</v>
@@ -68626,7 +68626,7 @@
         <v>96.2</v>
       </c>
       <c r="C205" s="4">
-        <v>96200</v>
+        <v>31065</v>
       </c>
       <c r="D205" s="4">
         <v>133.12</v>
@@ -68658,7 +68658,7 @@
         <v>90.8</v>
       </c>
       <c r="C206" s="4">
-        <v>90800</v>
+        <v>22333</v>
       </c>
       <c r="D206" s="4">
         <v>125.65</v>
@@ -68690,7 +68690,7 @@
         <v>93.7</v>
       </c>
       <c r="C207" s="4">
-        <v>93700</v>
+        <v>23519</v>
       </c>
       <c r="D207" s="4">
         <v>186.51</v>
@@ -68722,7 +68722,7 @@
         <v>94</v>
       </c>
       <c r="C208" s="4">
-        <v>94000</v>
+        <v>34536</v>
       </c>
       <c r="D208" s="4">
         <v>187.1</v>
@@ -68754,7 +68754,7 @@
         <v>98.7</v>
       </c>
       <c r="C209" s="4">
-        <v>98700</v>
+        <v>39815</v>
       </c>
       <c r="D209" s="4">
         <v>196.46</v>
@@ -68786,7 +68786,7 @@
         <v>118</v>
       </c>
       <c r="C210" s="4">
-        <v>118000</v>
+        <v>62119</v>
       </c>
       <c r="D210" s="4">
         <v>234.88</v>
@@ -68818,7 +68818,7 @@
         <v>104.5</v>
       </c>
       <c r="C211" s="4">
-        <v>104500</v>
+        <v>57071</v>
       </c>
       <c r="D211" s="4">
         <f>AVERAGE(D210,D237)</f>
@@ -68851,7 +68851,7 @@
         <v>98.2</v>
       </c>
       <c r="C212" s="4">
-        <v>98200</v>
+        <v>17330</v>
       </c>
       <c r="D212" s="4">
         <f t="shared" ref="D212:D236" si="7">AVERAGE(D211,D238)</f>
@@ -68884,7 +68884,7 @@
         <v>96</v>
       </c>
       <c r="C213" s="4">
-        <v>96000</v>
+        <v>12823</v>
       </c>
       <c r="D213" s="4">
         <f t="shared" si="7"/>
@@ -68917,7 +68917,7 @@
         <v>89.5</v>
       </c>
       <c r="C214" s="4">
-        <v>89500</v>
+        <v>7142</v>
       </c>
       <c r="D214" s="4">
         <f t="shared" si="7"/>
@@ -68950,7 +68950,7 @@
         <v>92.4</v>
       </c>
       <c r="C215" s="4">
-        <v>92400</v>
+        <v>16046</v>
       </c>
       <c r="D215" s="4">
         <f t="shared" si="7"/>
@@ -68983,7 +68983,7 @@
         <v>51</v>
       </c>
       <c r="C216" s="4">
-        <v>51000</v>
+        <v>14066</v>
       </c>
       <c r="D216" s="4">
         <f t="shared" si="7"/>
@@ -69016,7 +69016,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="C217" s="4">
-        <v>67900</v>
+        <v>17601</v>
       </c>
       <c r="D217" s="4">
         <f t="shared" si="7"/>
@@ -69049,7 +69049,7 @@
         <v>74.3</v>
       </c>
       <c r="C218" s="4">
-        <v>74300</v>
+        <v>18835</v>
       </c>
       <c r="D218" s="4">
         <f t="shared" si="7"/>
@@ -69082,7 +69082,7 @@
         <v>80.400000000000006</v>
       </c>
       <c r="C219" s="4">
-        <v>80400</v>
+        <v>12952</v>
       </c>
       <c r="D219" s="4">
         <f t="shared" si="7"/>
@@ -69115,7 +69115,7 @@
         <v>79.3</v>
       </c>
       <c r="C220" s="4">
-        <v>79300</v>
+        <v>11695</v>
       </c>
       <c r="D220" s="4">
         <f t="shared" si="7"/>
@@ -69148,7 +69148,7 @@
         <v>74.7</v>
       </c>
       <c r="C221" s="4">
-        <v>74700</v>
+        <v>5243</v>
       </c>
       <c r="D221" s="4">
         <f t="shared" si="7"/>
@@ -69181,7 +69181,7 @@
         <v>79.7</v>
       </c>
       <c r="C222" s="4">
-        <v>79700</v>
+        <v>6315</v>
       </c>
       <c r="D222" s="4">
         <f t="shared" si="7"/>
@@ -69214,7 +69214,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="C223" s="4">
-        <v>75600</v>
+        <v>14618</v>
       </c>
       <c r="D223" s="4">
         <f t="shared" si="7"/>
@@ -69247,7 +69247,7 @@
         <v>73.3</v>
       </c>
       <c r="C224" s="4">
-        <v>73300</v>
+        <v>9553</v>
       </c>
       <c r="D224" s="4">
         <f t="shared" si="7"/>
@@ -69280,7 +69280,7 @@
         <v>74.5</v>
       </c>
       <c r="C225" s="4">
-        <v>74500</v>
+        <v>12612</v>
       </c>
       <c r="D225" s="4">
         <f t="shared" si="7"/>
@@ -69313,7 +69313,7 @@
         <v>66.7</v>
       </c>
       <c r="C226" s="4">
-        <v>66700</v>
+        <v>7740</v>
       </c>
       <c r="D226" s="4">
         <f t="shared" si="7"/>
@@ -69346,7 +69346,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="C227" s="4">
-        <v>66400</v>
+        <v>2809</v>
       </c>
       <c r="D227" s="4">
         <f t="shared" si="7"/>
@@ -69379,7 +69379,7 @@
         <v>65.900000000000006</v>
       </c>
       <c r="C228" s="4">
-        <v>65900</v>
+        <v>5240</v>
       </c>
       <c r="D228" s="4">
         <f t="shared" si="7"/>
@@ -69412,7 +69412,7 @@
         <v>68.7</v>
       </c>
       <c r="C229" s="4">
-        <v>68700</v>
+        <v>9938</v>
       </c>
       <c r="D229" s="4">
         <f t="shared" si="7"/>
@@ -69445,7 +69445,7 @@
         <v>59.6</v>
       </c>
       <c r="C230" s="4">
-        <v>59600</v>
+        <v>9523</v>
       </c>
       <c r="D230" s="4">
         <f t="shared" si="7"/>
@@ -69478,7 +69478,7 @@
         <v>75.5</v>
       </c>
       <c r="C231" s="4">
-        <v>75500</v>
+        <v>9373</v>
       </c>
       <c r="D231" s="4">
         <f t="shared" si="7"/>
@@ -69511,7 +69511,7 @@
         <v>73.900000000000006</v>
       </c>
       <c r="C232" s="4">
-        <v>73900</v>
+        <v>27973</v>
       </c>
       <c r="D232" s="4">
         <f t="shared" si="7"/>
@@ -69544,7 +69544,7 @@
         <v>74.099999999999994</v>
       </c>
       <c r="C233" s="4">
-        <v>74100</v>
+        <v>14688</v>
       </c>
       <c r="D233" s="4">
         <f t="shared" si="7"/>
@@ -69577,7 +69577,7 @@
         <v>66.8</v>
       </c>
       <c r="C234" s="4">
-        <v>66800</v>
+        <v>4554</v>
       </c>
       <c r="D234" s="4">
         <f t="shared" si="7"/>
@@ -69610,7 +69610,7 @@
         <v>64.900000000000006</v>
       </c>
       <c r="C235" s="4">
-        <v>64900.000000000007</v>
+        <v>4375</v>
       </c>
       <c r="D235" s="4">
         <f t="shared" si="7"/>
@@ -69643,7 +69643,7 @@
         <v>66.3</v>
       </c>
       <c r="C236" s="4">
-        <v>66300</v>
+        <v>3597</v>
       </c>
       <c r="D236" s="4">
         <f t="shared" si="7"/>
@@ -69676,7 +69676,7 @@
         <v>101</v>
       </c>
       <c r="C237" s="4">
-        <v>101000</v>
+        <v>75437</v>
       </c>
       <c r="D237" s="4">
         <v>402.4</v>
@@ -69708,7 +69708,7 @@
         <v>80.5</v>
       </c>
       <c r="C238" s="4">
-        <v>80500</v>
+        <v>55191</v>
       </c>
       <c r="D238" s="4">
         <v>320.72000000000003</v>
@@ -69740,7 +69740,7 @@
         <v>88.6</v>
       </c>
       <c r="C239" s="4">
-        <v>88600</v>
+        <v>24862</v>
       </c>
       <c r="D239" s="4">
         <v>352.99</v>
@@ -69772,7 +69772,7 @@
         <v>95</v>
       </c>
       <c r="C240" s="4">
-        <v>95000</v>
+        <v>54614</v>
       </c>
       <c r="D240" s="4">
         <v>378.49</v>
@@ -69804,7 +69804,7 @@
         <v>81.7</v>
       </c>
       <c r="C241" s="4">
-        <v>81700</v>
+        <v>20062</v>
       </c>
       <c r="D241" s="4">
         <v>325.5</v>
@@ -69836,7 +69836,7 @@
         <v>88.7</v>
       </c>
       <c r="C242" s="4">
-        <v>88700</v>
+        <v>11431</v>
       </c>
       <c r="D242" s="4">
         <v>353.39</v>
@@ -69868,7 +69868,7 @@
         <v>75.5</v>
       </c>
       <c r="C243" s="4">
-        <v>75500</v>
+        <v>19364</v>
       </c>
       <c r="D243" s="4">
         <v>320.72000000000003</v>
@@ -69900,7 +69900,7 @@
         <v>82.4</v>
       </c>
       <c r="C244" s="4">
-        <v>82400</v>
+        <v>19089</v>
       </c>
       <c r="D244" s="4">
         <v>352.99</v>
@@ -69932,7 +69932,7 @@
         <v>82.7</v>
       </c>
       <c r="C245" s="4">
-        <v>82700</v>
+        <v>14470</v>
       </c>
       <c r="D245" s="4">
         <v>378.49</v>
@@ -69964,7 +69964,7 @@
         <v>48.3</v>
       </c>
       <c r="C246" s="4">
-        <v>48300</v>
+        <v>19121</v>
       </c>
       <c r="D246" s="4">
         <v>325.5</v>
@@ -69996,7 +69996,7 @@
         <v>45.4</v>
       </c>
       <c r="C247" s="4">
-        <v>45400</v>
+        <v>11573</v>
       </c>
       <c r="D247" s="4">
         <v>353.39</v>
@@ -70028,7 +70028,7 @@
         <v>50.3</v>
       </c>
       <c r="C248" s="4">
-        <v>50300</v>
+        <v>21571</v>
       </c>
       <c r="D248" s="4">
         <v>320.72000000000003</v>
@@ -70060,7 +70060,7 @@
         <v>65.099999999999994</v>
       </c>
       <c r="C249" s="4">
-        <v>65099.999999999993</v>
+        <v>95333</v>
       </c>
       <c r="D249" s="4">
         <v>352.99</v>
@@ -70092,7 +70092,7 @@
         <v>64.8</v>
       </c>
       <c r="C250" s="4">
-        <v>64800</v>
+        <v>44549</v>
       </c>
       <c r="D250" s="4">
         <v>378.49</v>
@@ -70124,7 +70124,7 @@
         <v>57.1</v>
       </c>
       <c r="C251" s="4">
-        <v>57100</v>
+        <v>22328</v>
       </c>
       <c r="D251" s="4">
         <v>325.5</v>
@@ -70156,7 +70156,7 @@
         <v>62.4</v>
       </c>
       <c r="C252" s="4">
-        <v>62400</v>
+        <v>16737</v>
       </c>
       <c r="D252" s="4">
         <v>353.39</v>
@@ -70188,7 +70188,7 @@
         <v>73</v>
       </c>
       <c r="C253" s="4">
-        <v>73000</v>
+        <v>35099</v>
       </c>
       <c r="D253" s="4">
         <v>320.72000000000003</v>
@@ -70220,7 +70220,7 @@
         <v>81.599999999999994</v>
       </c>
       <c r="C254" s="4">
-        <v>81600</v>
+        <v>133685</v>
       </c>
       <c r="D254" s="4">
         <v>352.99</v>
@@ -70252,7 +70252,7 @@
         <v>100.5</v>
       </c>
       <c r="C255" s="4">
-        <v>100500</v>
+        <v>167624</v>
       </c>
       <c r="D255" s="4">
         <v>378.49</v>
@@ -70284,7 +70284,7 @@
         <v>85.7</v>
       </c>
       <c r="C256" s="4">
-        <v>85700</v>
+        <v>163168</v>
       </c>
       <c r="D256" s="4">
         <v>325.5</v>
@@ -70316,7 +70316,7 @@
         <v>68.099999999999994</v>
       </c>
       <c r="C257" s="4">
-        <v>68100</v>
+        <v>43160</v>
       </c>
       <c r="D257" s="4">
         <v>353.39</v>
@@ -70348,7 +70348,7 @@
         <v>65.7</v>
       </c>
       <c r="C258" s="4">
-        <v>65700</v>
+        <v>23609</v>
       </c>
       <c r="D258" s="4">
         <v>320.72000000000003</v>
@@ -70380,7 +70380,7 @@
         <v>68.400000000000006</v>
       </c>
       <c r="C259" s="4">
-        <v>68400</v>
+        <v>22456</v>
       </c>
       <c r="D259" s="4">
         <v>352.99</v>
@@ -70412,7 +70412,7 @@
         <v>78.5</v>
       </c>
       <c r="C260" s="4">
-        <v>78500</v>
+        <v>51560</v>
       </c>
       <c r="D260" s="4">
         <v>378.49</v>
@@ -70444,7 +70444,7 @@
         <v>77</v>
       </c>
       <c r="C261" s="4">
-        <v>77000</v>
+        <v>62475</v>
       </c>
       <c r="D261" s="4">
         <v>325.5</v>
@@ -70476,7 +70476,7 @@
         <v>77.3</v>
       </c>
       <c r="C262" s="4">
-        <v>77300</v>
+        <v>71017</v>
       </c>
       <c r="D262" s="4">
         <v>353.39</v>
@@ -70508,7 +70508,7 @@
         <v>74.8</v>
       </c>
       <c r="C263" s="4">
-        <v>74800</v>
+        <v>11935</v>
       </c>
       <c r="D263" s="4">
         <v>320.72000000000003</v>
@@ -70540,7 +70540,7 @@
         <v>69.900000000000006</v>
       </c>
       <c r="C264" s="4">
-        <v>69900</v>
+        <v>22411</v>
       </c>
       <c r="D264" s="4">
         <v>352.99</v>
@@ -70572,7 +70572,7 @@
         <v>70.8</v>
       </c>
       <c r="C265" s="4">
-        <v>70800</v>
+        <v>10736</v>
       </c>
       <c r="D265" s="4">
         <v>378.49</v>
@@ -70604,7 +70604,7 @@
         <v>71.5</v>
       </c>
       <c r="C266" s="4">
-        <v>71500</v>
+        <v>13850</v>
       </c>
       <c r="D266" s="4">
         <v>325.5</v>
@@ -70636,7 +70636,7 @@
         <v>74.8</v>
       </c>
       <c r="C267" s="4">
-        <v>74800</v>
+        <v>26401</v>
       </c>
       <c r="D267" s="4">
         <v>353.39</v>
@@ -70668,7 +70668,7 @@
         <v>64.8</v>
       </c>
       <c r="C268" s="4">
-        <v>64800</v>
+        <v>21636</v>
       </c>
       <c r="D268" s="4">
         <v>320.72000000000003</v>
@@ -70700,7 +70700,7 @@
         <v>63.3</v>
       </c>
       <c r="C269" s="4">
-        <v>63300</v>
+        <v>10361</v>
       </c>
       <c r="D269" s="4">
         <v>352.99</v>
@@ -70732,7 +70732,7 @@
         <v>63.3</v>
       </c>
       <c r="C270" s="4">
-        <v>63300</v>
+        <v>13713</v>
       </c>
       <c r="D270" s="4">
         <v>378.49</v>
